--- a/Trace.xlsx
+++ b/Trace.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20349"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{690CA95B-8AF7-46A1-BC12-A03169C293DB}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{78B23ACB-EE94-4176-8F57-393AE54A6A2C}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12648" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="14">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="18">
   <si>
     <t>Legend</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -74,6 +74,21 @@
   </si>
   <si>
     <t>NoteBook</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Sliding Window Median</t>
+  </si>
+  <si>
+    <t>Hard</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>None</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Y</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -81,7 +96,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -111,6 +126,12 @@
       <name val="Segoe UI"/>
       <family val="2"/>
     </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FF212121"/>
+      <name val="Segoe UI"/>
+      <family val="2"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -132,7 +153,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -152,6 +173,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -432,10 +454,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:I2"/>
+  <dimension ref="A1:I3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F11" sqref="F11"/>
+      <selection activeCell="F8" sqref="F8:F9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -509,6 +531,33 @@
         <v>6.1805555555555669E-2</v>
       </c>
     </row>
+    <row r="3" spans="1:9" ht="15" x14ac:dyDescent="0.35">
+      <c r="A3" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="B3" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="C3" s="1">
+        <v>480</v>
+      </c>
+      <c r="D3" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="E3" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="G3" s="3">
+        <v>0.68194444444444446</v>
+      </c>
+      <c r="H3" s="3">
+        <v>0.72222222222222221</v>
+      </c>
+      <c r="I3" s="3">
+        <f>H3-G3</f>
+        <v>4.0277777777777746E-2</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Trace.xlsx
+++ b/Trace.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20349"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{78B23ACB-EE94-4176-8F57-393AE54A6A2C}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BC8A19CC-9C9F-4B3C-91CD-C571A590DEF3}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12648" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="18">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22" uniqueCount="21">
   <si>
     <t>Legend</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -89,6 +89,17 @@
   </si>
   <si>
     <t>Y</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Y</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Insert Delete GetRandom O(1)</t>
+  </si>
+  <si>
+    <t>DS</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -96,7 +107,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="5" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -126,12 +137,6 @@
       <name val="Segoe UI"/>
       <family val="2"/>
     </font>
-    <font>
-      <sz val="10"/>
-      <color rgb="FF212121"/>
-      <name val="Segoe UI"/>
-      <family val="2"/>
-    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -153,7 +158,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -173,7 +178,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -454,10 +458,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:I3"/>
+  <dimension ref="A1:I4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F8" sqref="F8:F9"/>
+      <selection activeCell="F4" sqref="F4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -531,11 +535,11 @@
         <v>6.1805555555555669E-2</v>
       </c>
     </row>
-    <row r="3" spans="1:9" ht="15" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:9" ht="15" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="B3" s="7" t="s">
+      <c r="B3" s="5" t="s">
         <v>14</v>
       </c>
       <c r="C3" s="1">
@@ -556,6 +560,33 @@
       <c r="I3" s="3">
         <f>H3-G3</f>
         <v>4.0277777777777746E-2</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9" ht="15" x14ac:dyDescent="0.25">
+      <c r="A4" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="B4" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="C4" s="1">
+        <v>380</v>
+      </c>
+      <c r="D4" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="E4" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="G4" s="3">
+        <v>0.6645833333333333</v>
+      </c>
+      <c r="H4" s="3">
+        <v>0.6875</v>
+      </c>
+      <c r="I4" s="3">
+        <f>H4-G4</f>
+        <v>2.2916666666666696E-2</v>
       </c>
     </row>
   </sheetData>

--- a/Trace.xlsx
+++ b/Trace.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20349"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BC8A19CC-9C9F-4B3C-91CD-C571A590DEF3}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0788B760-CF25-4A34-B25A-18440F8386CB}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12648" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22" uniqueCount="21">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="29" uniqueCount="28">
   <si>
     <t>Legend</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -100,6 +100,43 @@
   </si>
   <si>
     <t>DS</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Squares of a Sorted Array</t>
+  </si>
+  <si>
+    <t>Easy</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Array</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>BeatsTime</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>BeatsMemory</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF263238"/>
+        <rFont val="Segoe UI"/>
+        <family val="2"/>
+      </rPr>
+      <t>5.95%</t>
+    </r>
+  </si>
+  <si>
+    <t>?</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -107,7 +144,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="7" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -137,6 +174,24 @@
       <name val="Segoe UI"/>
       <family val="2"/>
     </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FF212121"/>
+      <name val="Segoe UI"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FF263238"/>
+      <name val="Segoe UI"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="8"/>
+      <color rgb="FF455A64"/>
+      <name val="Segoe UI"/>
+      <family val="2"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -158,7 +213,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -178,6 +233,9 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="10" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -458,10 +516,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:I4"/>
+  <dimension ref="A1:K5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F4" sqref="F4"/>
+      <selection activeCell="I8" activeCellId="1" sqref="B7 I8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -474,9 +532,11 @@
     <col min="7" max="7" width="8.88671875" style="1"/>
     <col min="8" max="8" width="9.109375" style="1" customWidth="1"/>
     <col min="9" max="9" width="8.88671875" style="1"/>
+    <col min="10" max="10" width="10.33203125" customWidth="1"/>
+    <col min="11" max="11" width="14" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:11" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -504,8 +564,14 @@
       <c r="I1" s="2" t="s">
         <v>8</v>
       </c>
+      <c r="J1" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="K1" s="2" t="s">
+        <v>25</v>
+      </c>
     </row>
-    <row r="2" spans="1:9" ht="15" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:11" ht="15" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
         <v>12</v>
       </c>
@@ -535,7 +601,7 @@
         <v>6.1805555555555669E-2</v>
       </c>
     </row>
-    <row r="3" spans="1:9" ht="15" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:11" ht="15" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
         <v>17</v>
       </c>
@@ -562,7 +628,7 @@
         <v>4.0277777777777746E-2</v>
       </c>
     </row>
-    <row r="4" spans="1:9" ht="15" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:11" ht="15" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
         <v>18</v>
       </c>
@@ -587,6 +653,39 @@
       <c r="I4" s="3">
         <f>H4-G4</f>
         <v>2.2916666666666696E-2</v>
+      </c>
+    </row>
+    <row r="5" spans="1:11" ht="19.2" x14ac:dyDescent="0.45">
+      <c r="A5" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="B5" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="C5" s="1">
+        <v>977</v>
+      </c>
+      <c r="D5" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="E5" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="G5" s="3">
+        <v>0.96875</v>
+      </c>
+      <c r="H5" s="3">
+        <v>0.99652777777777779</v>
+      </c>
+      <c r="I5" s="3">
+        <f>H5-G5</f>
+        <v>2.777777777777779E-2</v>
+      </c>
+      <c r="J5" s="8">
+        <v>0.20610000000000001</v>
+      </c>
+      <c r="K5" s="9" t="s">
+        <v>26</v>
       </c>
     </row>
   </sheetData>

--- a/Trace.xlsx
+++ b/Trace.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20349"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0788B760-CF25-4A34-B25A-18440F8386CB}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{223AF616-136F-4B72-B3CA-0F326F4FD14B}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12648" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="29" uniqueCount="28">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="32" uniqueCount="30">
   <si>
     <t>Legend</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -137,6 +137,14 @@
   </si>
   <si>
     <t>?</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Expressive Words</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>String</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -234,8 +242,12 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="10" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="10" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -516,10 +528,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:K5"/>
+  <dimension ref="A1:K7"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I8" activeCellId="1" sqref="B7 I8"/>
+    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
+      <selection activeCell="H2" sqref="H2:H3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -532,8 +544,8 @@
     <col min="7" max="7" width="8.88671875" style="1"/>
     <col min="8" max="8" width="9.109375" style="1" customWidth="1"/>
     <col min="9" max="9" width="8.88671875" style="1"/>
-    <col min="10" max="10" width="10.33203125" customWidth="1"/>
-    <col min="11" max="11" width="14" customWidth="1"/>
+    <col min="10" max="10" width="10.33203125" style="1" customWidth="1"/>
+    <col min="11" max="11" width="13.6640625" style="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:11" s="2" customFormat="1" x14ac:dyDescent="0.25">
@@ -655,7 +667,7 @@
         <v>2.2916666666666696E-2</v>
       </c>
     </row>
-    <row r="5" spans="1:11" ht="19.2" x14ac:dyDescent="0.45">
+    <row r="5" spans="1:11" ht="19.2" x14ac:dyDescent="0.35">
       <c r="A5" s="1" t="s">
         <v>27</v>
       </c>
@@ -687,6 +699,39 @@
       <c r="K5" s="9" t="s">
         <v>26</v>
       </c>
+    </row>
+    <row r="6" spans="1:11" ht="19.2" x14ac:dyDescent="0.25">
+      <c r="B6" s="6" t="s">
+        <v>28</v>
+      </c>
+      <c r="C6" s="1">
+        <v>809</v>
+      </c>
+      <c r="D6" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="E6" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="G6" s="3">
+        <v>0.94236111111111109</v>
+      </c>
+      <c r="H6" s="3">
+        <v>0.97916666666666663</v>
+      </c>
+      <c r="I6" s="3">
+        <f>H6-G6</f>
+        <v>3.6805555555555536E-2</v>
+      </c>
+      <c r="J6" s="8">
+        <v>5.6599999999999998E-2</v>
+      </c>
+      <c r="K6" s="8">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="K7" s="9"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>

--- a/Trace.xlsx
+++ b/Trace.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20349"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{223AF616-136F-4B72-B3CA-0F326F4FD14B}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6620404B-1C94-4364-9C37-E0E78A783FE6}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12648" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="32" uniqueCount="30">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="37" uniqueCount="31">
   <si>
     <t>Legend</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -147,12 +147,15 @@
     <t>String</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
+  <si>
+    <t>Find Pivot Index</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="7" x14ac:knownFonts="1">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -183,20 +186,8 @@
       <family val="2"/>
     </font>
     <font>
-      <sz val="10"/>
-      <color rgb="FF212121"/>
-      <name val="Segoe UI"/>
-      <family val="2"/>
-    </font>
-    <font>
       <sz val="12"/>
       <color rgb="FF263238"/>
-      <name val="Segoe UI"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <sz val="8"/>
-      <color rgb="FF455A64"/>
       <name val="Segoe UI"/>
       <family val="2"/>
     </font>
@@ -221,7 +212,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -232,20 +223,10 @@
     <xf numFmtId="20" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="10" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="10" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -530,29 +511,29 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:K7"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
-      <selection activeCell="H2" sqref="H2:H3"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="J14" sqref="J14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="17.25" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="7.5546875" style="1" customWidth="1"/>
-    <col min="2" max="2" width="27.6640625" style="6" customWidth="1"/>
-    <col min="3" max="4" width="8.88671875" style="1"/>
-    <col min="5" max="5" width="12.6640625" style="1" customWidth="1"/>
+    <col min="1" max="1" width="7.5" style="1" customWidth="1"/>
+    <col min="2" max="2" width="27.625" style="4" customWidth="1"/>
+    <col min="3" max="4" width="8.875" style="1"/>
+    <col min="5" max="5" width="12.625" style="1" customWidth="1"/>
     <col min="6" max="6" width="11" style="1" customWidth="1"/>
-    <col min="7" max="7" width="8.88671875" style="1"/>
-    <col min="8" max="8" width="9.109375" style="1" customWidth="1"/>
-    <col min="9" max="9" width="8.88671875" style="1"/>
-    <col min="10" max="10" width="10.33203125" style="1" customWidth="1"/>
-    <col min="11" max="11" width="13.6640625" style="1" customWidth="1"/>
+    <col min="7" max="7" width="8.875" style="1"/>
+    <col min="8" max="8" width="9.125" style="1" customWidth="1"/>
+    <col min="9" max="9" width="16.875" style="1" customWidth="1"/>
+    <col min="10" max="10" width="10.375" style="5" customWidth="1"/>
+    <col min="11" max="11" width="13.625" style="5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:11" s="2" customFormat="1" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="4" t="s">
+      <c r="B1" s="2" t="s">
         <v>1</v>
       </c>
       <c r="C1" s="2" t="s">
@@ -583,11 +564,11 @@
         <v>25</v>
       </c>
     </row>
-    <row r="2" spans="1:11" ht="15" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A2" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="B2" s="5" t="s">
+      <c r="B2" s="4" t="s">
         <v>11</v>
       </c>
       <c r="C2" s="1">
@@ -613,11 +594,11 @@
         <v>6.1805555555555669E-2</v>
       </c>
     </row>
-    <row r="3" spans="1:11" ht="15" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A3" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="B3" s="5" t="s">
+      <c r="B3" s="4" t="s">
         <v>14</v>
       </c>
       <c r="C3" s="1">
@@ -640,11 +621,11 @@
         <v>4.0277777777777746E-2</v>
       </c>
     </row>
-    <row r="4" spans="1:11" ht="15" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A4" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="B4" s="5" t="s">
+      <c r="B4" s="4" t="s">
         <v>19</v>
       </c>
       <c r="C4" s="1">
@@ -667,11 +648,11 @@
         <v>2.2916666666666696E-2</v>
       </c>
     </row>
-    <row r="5" spans="1:11" ht="19.2" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="B5" s="7" t="s">
+      <c r="B5" s="4" t="s">
         <v>21</v>
       </c>
       <c r="C5" s="1">
@@ -693,15 +674,18 @@
         <f>H5-G5</f>
         <v>2.777777777777779E-2</v>
       </c>
-      <c r="J5" s="8">
+      <c r="J5" s="5">
         <v>0.20610000000000001</v>
       </c>
-      <c r="K5" s="9" t="s">
+      <c r="K5" s="5" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="6" spans="1:11" ht="19.2" x14ac:dyDescent="0.25">
-      <c r="B6" s="6" t="s">
+    <row r="6" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A6" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="B6" s="4" t="s">
         <v>28</v>
       </c>
       <c r="C6" s="1">
@@ -723,15 +707,45 @@
         <f>H6-G6</f>
         <v>3.6805555555555536E-2</v>
       </c>
-      <c r="J6" s="8">
+      <c r="J6" s="5">
         <v>5.6599999999999998E-2</v>
       </c>
-      <c r="K6" s="8">
+      <c r="K6" s="5">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="K7" s="9"/>
+    <row r="7" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A7" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="B7" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="C7" s="1">
+        <v>724</v>
+      </c>
+      <c r="D7" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="E7" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="G7" s="3">
+        <v>0.92291666666666661</v>
+      </c>
+      <c r="H7" s="3">
+        <v>0.94374999999999998</v>
+      </c>
+      <c r="I7" s="3">
+        <f>H7-G7</f>
+        <v>2.083333333333337E-2</v>
+      </c>
+      <c r="J7" s="5">
+        <v>0.98470000000000002</v>
+      </c>
+      <c r="K7" s="5">
+        <v>8.3299999999999999E-2</v>
+      </c>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>

--- a/Trace.xlsx
+++ b/Trace.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20349"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6620404B-1C94-4364-9C37-E0E78A783FE6}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{771A0CA6-476C-4730-9A2D-1C6D393FFC8F}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="37" uniqueCount="31">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="47" uniqueCount="34">
   <si>
     <t>Legend</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -149,6 +149,18 @@
   </si>
   <si>
     <t>Find Pivot Index</t>
+  </si>
+  <si>
+    <t>My Calendar I</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>None</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Y</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -509,10 +521,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:K7"/>
+  <dimension ref="A1:K8"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J14" sqref="J14"/>
+      <selection activeCell="F13" sqref="F13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17.25" x14ac:dyDescent="0.2"/>
@@ -590,7 +602,7 @@
         <v>1.0277777777777779</v>
       </c>
       <c r="I2" s="3">
-        <f>H2-G2</f>
+        <f t="shared" ref="I2:I8" si="0">H2-G2</f>
         <v>6.1805555555555669E-2</v>
       </c>
     </row>
@@ -610,6 +622,9 @@
       <c r="E3" s="1" t="s">
         <v>16</v>
       </c>
+      <c r="F3" s="1" t="s">
+        <v>13</v>
+      </c>
       <c r="G3" s="3">
         <v>0.68194444444444446</v>
       </c>
@@ -617,7 +632,7 @@
         <v>0.72222222222222221</v>
       </c>
       <c r="I3" s="3">
-        <f>H3-G3</f>
+        <f t="shared" si="0"/>
         <v>4.0277777777777746E-2</v>
       </c>
     </row>
@@ -637,6 +652,9 @@
       <c r="E4" s="1" t="s">
         <v>20</v>
       </c>
+      <c r="F4" s="1" t="s">
+        <v>13</v>
+      </c>
       <c r="G4" s="3">
         <v>0.6645833333333333</v>
       </c>
@@ -644,7 +662,7 @@
         <v>0.6875</v>
       </c>
       <c r="I4" s="3">
-        <f>H4-G4</f>
+        <f t="shared" si="0"/>
         <v>2.2916666666666696E-2</v>
       </c>
     </row>
@@ -664,6 +682,9 @@
       <c r="E5" s="1" t="s">
         <v>23</v>
       </c>
+      <c r="F5" s="1" t="s">
+        <v>13</v>
+      </c>
       <c r="G5" s="3">
         <v>0.96875</v>
       </c>
@@ -671,7 +692,7 @@
         <v>0.99652777777777779</v>
       </c>
       <c r="I5" s="3">
-        <f>H5-G5</f>
+        <f t="shared" si="0"/>
         <v>2.777777777777779E-2</v>
       </c>
       <c r="J5" s="5">
@@ -697,6 +718,9 @@
       <c r="E6" s="1" t="s">
         <v>29</v>
       </c>
+      <c r="F6" s="1" t="s">
+        <v>13</v>
+      </c>
       <c r="G6" s="3">
         <v>0.94236111111111109</v>
       </c>
@@ -704,7 +728,7 @@
         <v>0.97916666666666663</v>
       </c>
       <c r="I6" s="3">
-        <f>H6-G6</f>
+        <f t="shared" si="0"/>
         <v>3.6805555555555536E-2</v>
       </c>
       <c r="J6" s="5">
@@ -730,6 +754,9 @@
       <c r="E7" s="1" t="s">
         <v>23</v>
       </c>
+      <c r="F7" s="1" t="s">
+        <v>13</v>
+      </c>
       <c r="G7" s="3">
         <v>0.92291666666666661</v>
       </c>
@@ -737,7 +764,7 @@
         <v>0.94374999999999998</v>
       </c>
       <c r="I7" s="3">
-        <f>H7-G7</f>
+        <f t="shared" si="0"/>
         <v>2.083333333333337E-2</v>
       </c>
       <c r="J7" s="5">
@@ -745,6 +772,42 @@
       </c>
       <c r="K7" s="5">
         <v>8.3299999999999999E-2</v>
+      </c>
+    </row>
+    <row r="8" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A8" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="B8" s="4" t="s">
+        <v>31</v>
+      </c>
+      <c r="C8" s="1">
+        <v>729</v>
+      </c>
+      <c r="D8" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="E8" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="F8" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="G8" s="3">
+        <v>0.9375</v>
+      </c>
+      <c r="H8" s="3">
+        <v>0.97222222222222221</v>
+      </c>
+      <c r="I8" s="3">
+        <f t="shared" si="0"/>
+        <v>3.472222222222221E-2</v>
+      </c>
+      <c r="J8" s="5">
+        <v>0.24060000000000001</v>
+      </c>
+      <c r="K8" s="5">
+        <v>0.2</v>
       </c>
     </row>
   </sheetData>

--- a/Trace.xlsx
+++ b/Trace.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20349"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{771A0CA6-476C-4730-9A2D-1C6D393FFC8F}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1B6CD603-1B85-467F-987A-BDA70FDA4A68}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="47" uniqueCount="34">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="51" uniqueCount="37">
   <si>
     <t>Legend</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -160,6 +160,18 @@
   </si>
   <si>
     <t>Y</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Arithmetic Slices</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>DP</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>*</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -224,7 +236,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -239,6 +251,9 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="10" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="46" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -521,10 +536,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:K8"/>
+  <dimension ref="A1:K9"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F13" sqref="F13"/>
+      <selection activeCell="E14" sqref="E14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17.25" x14ac:dyDescent="0.2"/>
@@ -602,7 +617,7 @@
         <v>1.0277777777777779</v>
       </c>
       <c r="I2" s="3">
-        <f t="shared" ref="I2:I8" si="0">H2-G2</f>
+        <f t="shared" ref="I2:I9" si="0">H2-G2</f>
         <v>6.1805555555555669E-2</v>
       </c>
     </row>
@@ -808,6 +823,39 @@
       </c>
       <c r="K8" s="5">
         <v>0.2</v>
+      </c>
+    </row>
+    <row r="9" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A9" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="B9" s="4" t="s">
+        <v>34</v>
+      </c>
+      <c r="C9" s="1">
+        <v>413</v>
+      </c>
+      <c r="D9" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="E9" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="G9" s="3">
+        <v>0.98888888888888893</v>
+      </c>
+      <c r="H9" s="6">
+        <v>1.0159722222222223</v>
+      </c>
+      <c r="I9" s="3">
+        <f t="shared" si="0"/>
+        <v>2.7083333333333348E-2</v>
+      </c>
+      <c r="J9" s="5">
+        <v>0.14630000000000001</v>
+      </c>
+      <c r="K9" s="5">
+        <v>6.6699999999999995E-2</v>
       </c>
     </row>
   </sheetData>

--- a/Trace.xlsx
+++ b/Trace.xlsx
@@ -1,9 +1,9 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20349"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20350"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1B6CD603-1B85-467F-987A-BDA70FDA4A68}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6F54AA06-E64B-45CD-BFD6-1DE2624AD5D4}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="51" uniqueCount="37">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="55" uniqueCount="40">
   <si>
     <t>Legend</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -172,6 +172,18 @@
   </si>
   <si>
     <t>*</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Maximum Sum of 3 Non-Overlapping Subarrays</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>DP</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>?</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -536,7 +548,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:K9"/>
+  <dimension ref="A1:K10"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="E14" sqref="E14"/>
@@ -858,6 +870,26 @@
         <v>6.6699999999999995E-2</v>
       </c>
     </row>
+    <row r="10" spans="1:11" ht="28.5" x14ac:dyDescent="0.2">
+      <c r="A10" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="B10" s="4" t="s">
+        <v>37</v>
+      </c>
+      <c r="C10" s="1">
+        <v>689</v>
+      </c>
+      <c r="D10" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="E10" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="G10" s="3">
+        <v>0.91319444444444453</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Trace.xlsx
+++ b/Trace.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20350"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6F54AA06-E64B-45CD-BFD6-1DE2624AD5D4}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3D5CA829-8B57-4C9A-839E-37A554713334}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="55" uniqueCount="40">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="60" uniqueCount="43">
   <si>
     <t>Legend</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -184,6 +184,18 @@
   </si>
   <si>
     <t>?</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Min Stack</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>复习时间</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>DS</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -548,10 +560,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:K10"/>
+  <dimension ref="A1:L11"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E14" sqref="E14"/>
+    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
+      <selection activeCell="I12" sqref="I12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17.25" x14ac:dyDescent="0.2"/>
@@ -566,9 +578,10 @@
     <col min="9" max="9" width="16.875" style="1" customWidth="1"/>
     <col min="10" max="10" width="10.375" style="5" customWidth="1"/>
     <col min="11" max="11" width="13.625" style="5" customWidth="1"/>
+    <col min="12" max="12" width="9" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" s="2" customFormat="1" ht="14.25" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:12" s="2" customFormat="1" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -602,8 +615,11 @@
       <c r="K1" s="2" t="s">
         <v>25</v>
       </c>
-    </row>
-    <row r="2" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L1" s="2" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="2" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A2" s="1" t="s">
         <v>12</v>
       </c>
@@ -629,11 +645,11 @@
         <v>1.0277777777777779</v>
       </c>
       <c r="I2" s="3">
-        <f t="shared" ref="I2:I9" si="0">H2-G2</f>
+        <f t="shared" ref="I2:I11" si="0">H2-G2</f>
         <v>6.1805555555555669E-2</v>
       </c>
     </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A3" s="1" t="s">
         <v>17</v>
       </c>
@@ -663,7 +679,7 @@
         <v>4.0277777777777746E-2</v>
       </c>
     </row>
-    <row r="4" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A4" s="1" t="s">
         <v>18</v>
       </c>
@@ -693,7 +709,7 @@
         <v>2.2916666666666696E-2</v>
       </c>
     </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>27</v>
       </c>
@@ -729,7 +745,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A6" s="1" t="s">
         <v>17</v>
       </c>
@@ -765,7 +781,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A7" s="1" t="s">
         <v>17</v>
       </c>
@@ -801,7 +817,7 @@
         <v>8.3299999999999999E-2</v>
       </c>
     </row>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A8" s="1" t="s">
         <v>33</v>
       </c>
@@ -837,7 +853,7 @@
         <v>0.2</v>
       </c>
     </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A9" s="1" t="s">
         <v>36</v>
       </c>
@@ -852,6 +868,9 @@
       </c>
       <c r="E9" s="1" t="s">
         <v>35</v>
+      </c>
+      <c r="F9" s="1" t="s">
+        <v>13</v>
       </c>
       <c r="G9" s="3">
         <v>0.98888888888888893</v>
@@ -870,7 +889,7 @@
         <v>6.6699999999999995E-2</v>
       </c>
     </row>
-    <row r="10" spans="1:11" ht="28.5" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:12" ht="28.5" x14ac:dyDescent="0.2">
       <c r="A10" s="1" t="s">
         <v>39</v>
       </c>
@@ -888,6 +907,36 @@
       </c>
       <c r="G10" s="3">
         <v>0.91319444444444453</v>
+      </c>
+    </row>
+    <row r="11" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="B11" s="4" t="s">
+        <v>40</v>
+      </c>
+      <c r="C11" s="1">
+        <v>155</v>
+      </c>
+      <c r="D11" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="E11" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="G11" s="3">
+        <v>0.95138888888888884</v>
+      </c>
+      <c r="H11" s="3">
+        <v>0.95763888888888893</v>
+      </c>
+      <c r="I11" s="3">
+        <f t="shared" si="0"/>
+        <v>6.2500000000000888E-3</v>
+      </c>
+      <c r="J11" s="5">
+        <v>0.91200000000000003</v>
+      </c>
+      <c r="K11" s="5">
+        <v>5.3600000000000002E-2</v>
       </c>
     </row>
   </sheetData>

--- a/Trace.xlsx
+++ b/Trace.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20350"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3D5CA829-8B57-4C9A-839E-37A554713334}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1194850A-AE85-4038-AB24-8858F0A59094}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="60" uniqueCount="43">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="65" uniqueCount="45">
   <si>
     <t>Legend</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -171,31 +171,39 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
+    <t>Maximum Sum of 3 Non-Overlapping Subarrays</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>DP</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Min Stack</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>复习时间</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>DS</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Y</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Cheapest Flights Within K Stops</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
     <t>*</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>Maximum Sum of 3 Non-Overlapping Subarrays</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>DP</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>?</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Min Stack</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>复习时间</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>DS</t>
+    <t>ALGORIHTHM</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -560,10 +568,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:L11"/>
+  <dimension ref="A1:L12"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
-      <selection activeCell="I12" sqref="I12"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D15" sqref="D15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17.25" x14ac:dyDescent="0.2"/>
@@ -616,7 +624,7 @@
         <v>25</v>
       </c>
       <c r="L1" s="2" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
     </row>
     <row r="2" spans="1:12" x14ac:dyDescent="0.2">
@@ -645,7 +653,7 @@
         <v>1.0277777777777779</v>
       </c>
       <c r="I2" s="3">
-        <f t="shared" ref="I2:I11" si="0">H2-G2</f>
+        <f t="shared" ref="I2:I12" si="0">H2-G2</f>
         <v>6.1805555555555669E-2</v>
       </c>
     </row>
@@ -855,7 +863,7 @@
     </row>
     <row r="9" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A9" s="1" t="s">
-        <v>36</v>
+        <v>27</v>
       </c>
       <c r="B9" s="4" t="s">
         <v>34</v>
@@ -891,10 +899,10 @@
     </row>
     <row r="10" spans="1:12" ht="28.5" x14ac:dyDescent="0.2">
       <c r="A10" s="1" t="s">
-        <v>39</v>
+        <v>12</v>
       </c>
       <c r="B10" s="4" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="C10" s="1">
         <v>689</v>
@@ -903,15 +911,18 @@
         <v>15</v>
       </c>
       <c r="E10" s="1" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="G10" s="3">
         <v>0.91319444444444453</v>
       </c>
     </row>
     <row r="11" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A11" s="1" t="s">
+        <v>41</v>
+      </c>
       <c r="B11" s="4" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="C11" s="1">
         <v>155</v>
@@ -920,7 +931,7 @@
         <v>22</v>
       </c>
       <c r="E11" s="1" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="G11" s="3">
         <v>0.95138888888888884</v>
@@ -937,6 +948,39 @@
       </c>
       <c r="K11" s="5">
         <v>5.3600000000000002E-2</v>
+      </c>
+    </row>
+    <row r="12" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A12" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="B12" s="4" t="s">
+        <v>42</v>
+      </c>
+      <c r="C12" s="1">
+        <v>787</v>
+      </c>
+      <c r="D12" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="E12" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="G12" s="3">
+        <v>0.88888888888888884</v>
+      </c>
+      <c r="H12" s="6">
+        <v>1.0215277777777778</v>
+      </c>
+      <c r="I12" s="3">
+        <f t="shared" si="0"/>
+        <v>0.13263888888888897</v>
+      </c>
+      <c r="J12" s="5">
+        <v>0.99</v>
+      </c>
+      <c r="K12" s="5">
+        <v>0.52629999999999999</v>
       </c>
     </row>
   </sheetData>

--- a/Trace.xlsx
+++ b/Trace.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20350"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1194850A-AE85-4038-AB24-8858F0A59094}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DAF59F5E-CC02-4596-8ECE-A12867193F54}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="65" uniqueCount="45">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="69" uniqueCount="47">
   <si>
     <t>Legend</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -204,6 +204,14 @@
   </si>
   <si>
     <t>ALGORIHTHM</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Distant Barcodes</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>?</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -568,10 +576,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:L12"/>
+  <dimension ref="A1:L13"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D15" sqref="D15"/>
+      <selection activeCell="L13" sqref="L13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17.25" x14ac:dyDescent="0.2"/>
@@ -653,7 +661,7 @@
         <v>1.0277777777777779</v>
       </c>
       <c r="I2" s="3">
-        <f t="shared" ref="I2:I12" si="0">H2-G2</f>
+        <f t="shared" ref="I2:I13" si="0">H2-G2</f>
         <v>6.1805555555555669E-2</v>
       </c>
     </row>
@@ -981,6 +989,39 @@
       </c>
       <c r="K12" s="5">
         <v>0.52629999999999999</v>
+      </c>
+    </row>
+    <row r="13" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A13" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="B13" s="4" t="s">
+        <v>45</v>
+      </c>
+      <c r="C13" s="1">
+        <v>1054</v>
+      </c>
+      <c r="D13" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="E13" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="G13" s="3">
+        <v>7.0833333333333331E-2</v>
+      </c>
+      <c r="H13" s="3">
+        <v>9.7222222222222224E-2</v>
+      </c>
+      <c r="I13" s="3">
+        <f t="shared" si="0"/>
+        <v>2.6388888888888892E-2</v>
+      </c>
+      <c r="J13" s="5">
+        <v>0.1047</v>
+      </c>
+      <c r="K13" s="5">
+        <v>1</v>
       </c>
     </row>
   </sheetData>

--- a/Trace.xlsx
+++ b/Trace.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20350"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DAF59F5E-CC02-4596-8ECE-A12867193F54}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{218AC0A9-9CE7-424B-9EB6-A5374BA695F3}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="69" uniqueCount="47">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="76" uniqueCount="52">
   <si>
     <t>Legend</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -212,6 +212,26 @@
   </si>
   <si>
     <t>?</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1-bit and 2-bit Characters</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Y</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">Hamming Distance </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>OneNote</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Y</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -576,10 +596,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:L13"/>
+  <dimension ref="A1:L15"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="L13" sqref="L13"/>
+      <selection activeCell="B17" sqref="B17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17.25" x14ac:dyDescent="0.2"/>
@@ -661,7 +681,7 @@
         <v>1.0277777777777779</v>
       </c>
       <c r="I2" s="3">
-        <f t="shared" ref="I2:I13" si="0">H2-G2</f>
+        <f t="shared" ref="I2:I12" si="0">H2-G2</f>
         <v>6.1805555555555669E-2</v>
       </c>
     </row>
@@ -1014,7 +1034,7 @@
         <v>9.7222222222222224E-2</v>
       </c>
       <c r="I13" s="3">
-        <f t="shared" si="0"/>
+        <f>H13-G13</f>
         <v>2.6388888888888892E-2</v>
       </c>
       <c r="J13" s="5">
@@ -1022,6 +1042,69 @@
       </c>
       <c r="K13" s="5">
         <v>1</v>
+      </c>
+    </row>
+    <row r="14" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A14" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="B14" s="4" t="s">
+        <v>47</v>
+      </c>
+      <c r="C14" s="1">
+        <v>717</v>
+      </c>
+      <c r="D14" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="F14" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="G14" s="3">
+        <v>0.96944444444444444</v>
+      </c>
+      <c r="H14" s="3">
+        <v>0.9784722222222223</v>
+      </c>
+      <c r="I14" s="3">
+        <f>H14-G14</f>
+        <v>9.0277777777778567E-3</v>
+      </c>
+      <c r="J14" s="5">
+        <v>0.73440000000000005</v>
+      </c>
+      <c r="K14" s="5">
+        <v>0.2</v>
+      </c>
+    </row>
+    <row r="15" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A15" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="B15" s="4" t="s">
+        <v>49</v>
+      </c>
+      <c r="C15" s="1">
+        <v>461</v>
+      </c>
+      <c r="D15" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="G15" s="3">
+        <v>0.8125</v>
+      </c>
+      <c r="H15" s="3">
+        <v>0.83472222222222225</v>
+      </c>
+      <c r="I15" s="3">
+        <f>H15-G15</f>
+        <v>2.2222222222222254E-2</v>
+      </c>
+      <c r="J15" s="5">
+        <v>0.36120000000000002</v>
+      </c>
+      <c r="K15" s="5">
+        <v>8.0699999999999994E-2</v>
       </c>
     </row>
   </sheetData>

--- a/Trace.xlsx
+++ b/Trace.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20350"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{218AC0A9-9CE7-424B-9EB6-A5374BA695F3}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BE2C23DA-1910-46D5-9A64-4AD9CE9E468B}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="76" uniqueCount="52">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="78" uniqueCount="53">
   <si>
     <t>Legend</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -232,6 +232,10 @@
   </si>
   <si>
     <t>Y</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Freedom Trail</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -596,10 +600,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:L15"/>
+  <dimension ref="A1:L16"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B17" sqref="B17"/>
+      <selection activeCell="J16" sqref="J16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17.25" x14ac:dyDescent="0.2"/>
@@ -1107,6 +1111,20 @@
         <v>8.0699999999999994E-2</v>
       </c>
     </row>
+    <row r="16" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="B16" s="4" t="s">
+        <v>52</v>
+      </c>
+      <c r="C16" s="1">
+        <v>514</v>
+      </c>
+      <c r="D16" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="G16" s="3">
+        <v>0.93680555555555556</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Trace.xlsx
+++ b/Trace.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20350"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BE2C23DA-1910-46D5-9A64-4AD9CE9E468B}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A0ACFF0E-DF55-4B3E-B380-6AA1D8F1E0A4}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="78" uniqueCount="53">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="89" uniqueCount="56">
   <si>
     <t>Legend</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -227,15 +227,27 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>OneNote</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>Y</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>Freedom Trail</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>*</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Valid Square</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>DP</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Bit OP</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -600,10 +612,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:L16"/>
+  <dimension ref="A1:L17"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J16" sqref="J16"/>
+    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
+      <selection activeCell="K12" sqref="K12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17.25" x14ac:dyDescent="0.2"/>
@@ -945,6 +957,9 @@
       <c r="E10" s="1" t="s">
         <v>37</v>
       </c>
+      <c r="F10" s="1" t="s">
+        <v>13</v>
+      </c>
       <c r="G10" s="3">
         <v>0.91319444444444453</v>
       </c>
@@ -965,6 +980,9 @@
       <c r="E11" s="1" t="s">
         <v>40</v>
       </c>
+      <c r="F11" s="1" t="s">
+        <v>13</v>
+      </c>
       <c r="G11" s="3">
         <v>0.95138888888888884</v>
       </c>
@@ -998,6 +1016,9 @@
       <c r="E12" s="1" t="s">
         <v>44</v>
       </c>
+      <c r="F12" s="1" t="s">
+        <v>13</v>
+      </c>
       <c r="G12" s="3">
         <v>0.88888888888888884</v>
       </c>
@@ -1031,6 +1052,9 @@
       <c r="E13" s="1" t="s">
         <v>20</v>
       </c>
+      <c r="F13" s="1" t="s">
+        <v>13</v>
+      </c>
       <c r="G13" s="3">
         <v>7.0833333333333331E-2</v>
       </c>
@@ -1061,8 +1085,11 @@
       <c r="D14" s="1" t="s">
         <v>22</v>
       </c>
+      <c r="E14" s="1" t="s">
+        <v>55</v>
+      </c>
       <c r="F14" s="1" t="s">
-        <v>50</v>
+        <v>13</v>
       </c>
       <c r="G14" s="3">
         <v>0.96944444444444444</v>
@@ -1083,7 +1110,7 @@
     </row>
     <row r="15" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A15" s="1" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="B15" s="4" t="s">
         <v>49</v>
@@ -1093,6 +1120,9 @@
       </c>
       <c r="D15" s="1" t="s">
         <v>22</v>
+      </c>
+      <c r="F15" s="1" t="s">
+        <v>13</v>
       </c>
       <c r="G15" s="3">
         <v>0.8125</v>
@@ -1112,8 +1142,11 @@
       </c>
     </row>
     <row r="16" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A16" s="1" t="s">
+        <v>52</v>
+      </c>
       <c r="B16" s="4" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="C16" s="1">
         <v>514</v>
@@ -1121,8 +1154,41 @@
       <c r="D16" s="1" t="s">
         <v>15</v>
       </c>
+      <c r="E16" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="F16" s="1" t="s">
+        <v>13</v>
+      </c>
       <c r="G16" s="3">
         <v>0.93680555555555556</v>
+      </c>
+    </row>
+    <row r="17" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="B17" s="4" t="s">
+        <v>53</v>
+      </c>
+      <c r="C17" s="1">
+        <v>593</v>
+      </c>
+      <c r="D17" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="G17" s="3">
+        <v>0.6743055555555556</v>
+      </c>
+      <c r="H17" s="3">
+        <v>0.72916666666666663</v>
+      </c>
+      <c r="I17" s="3">
+        <f>H17-G17</f>
+        <v>5.4861111111111027E-2</v>
+      </c>
+      <c r="J17" s="5">
+        <v>0.92110000000000003</v>
+      </c>
+      <c r="K17" s="5">
+        <v>1</v>
       </c>
     </row>
   </sheetData>

--- a/Trace.xlsx
+++ b/Trace.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20350"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A0ACFF0E-DF55-4B3E-B380-6AA1D8F1E0A4}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{20D8FDAC-C035-4032-870D-ECF3A812CC67}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="89" uniqueCount="56">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="104" uniqueCount="62">
   <si>
     <t>Legend</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -248,6 +248,30 @@
   </si>
   <si>
     <t>Bit OP</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Easy</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Groups of Special-Equivalent Strings</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Y</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>?</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Solve the Equation</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Y</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -612,10 +636,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:L17"/>
+  <dimension ref="A1:L20"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
-      <selection activeCell="K12" sqref="K12"/>
+    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
+      <selection activeCell="K23" sqref="K23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17.25" x14ac:dyDescent="0.2"/>
@@ -1164,7 +1188,10 @@
         <v>0.93680555555555556</v>
       </c>
     </row>
-    <row r="17" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A17" s="1" t="s">
+        <v>58</v>
+      </c>
       <c r="B17" s="4" t="s">
         <v>53</v>
       </c>
@@ -1173,6 +1200,9 @@
       </c>
       <c r="D17" s="1" t="s">
         <v>9</v>
+      </c>
+      <c r="F17" s="1" t="s">
+        <v>13</v>
       </c>
       <c r="G17" s="3">
         <v>0.6743055555555556</v>
@@ -1189,6 +1219,108 @@
       </c>
       <c r="K17" s="5">
         <v>1</v>
+      </c>
+    </row>
+    <row r="18" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A18" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="C18" s="1">
+        <v>925</v>
+      </c>
+      <c r="D18" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="E18" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="F18" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="G18" s="3">
+        <v>0.92847222222222225</v>
+      </c>
+      <c r="H18" s="3">
+        <v>0.95138888888888884</v>
+      </c>
+      <c r="I18" s="3">
+        <f>H18-G18</f>
+        <v>2.2916666666666585E-2</v>
+      </c>
+      <c r="J18" s="5">
+        <v>0.14000000000000001</v>
+      </c>
+      <c r="K18" s="5">
+        <v>0.22</v>
+      </c>
+    </row>
+    <row r="19" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A19" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="B19" s="4" t="s">
+        <v>57</v>
+      </c>
+      <c r="C19" s="1">
+        <v>893</v>
+      </c>
+      <c r="D19" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="E19" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="F19" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="G19" s="3">
+        <v>0.91666666666666663</v>
+      </c>
+      <c r="H19" s="3">
+        <v>0.95833333333333337</v>
+      </c>
+      <c r="I19" s="3">
+        <f>H19-G19</f>
+        <v>4.1666666666666741E-2</v>
+      </c>
+      <c r="J19" s="5">
+        <v>0.05</v>
+      </c>
+      <c r="K19" s="5">
+        <v>0.2</v>
+      </c>
+    </row>
+    <row r="20" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A20" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="B20" s="4" t="s">
+        <v>60</v>
+      </c>
+      <c r="C20" s="1">
+        <v>640</v>
+      </c>
+      <c r="D20" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="F20" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="G20" s="3">
+        <v>0.81944444444444453</v>
+      </c>
+      <c r="H20" s="3">
+        <v>0.86805555555555547</v>
+      </c>
+      <c r="I20" s="3">
+        <f>H20-G20</f>
+        <v>4.8611111111110938E-2</v>
+      </c>
+      <c r="J20" s="5">
+        <v>0.7</v>
+      </c>
+      <c r="K20" s="5">
+        <v>0.25</v>
       </c>
     </row>
   </sheetData>

--- a/Trace.xlsx
+++ b/Trace.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20350"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{20D8FDAC-C035-4032-870D-ECF3A812CC67}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9E5620C0-5FBD-4A7C-8078-6491E360A5F0}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="104" uniqueCount="62">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="108" uniqueCount="64">
   <si>
     <t>Legend</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -272,6 +272,14 @@
   </si>
   <si>
     <t>Y</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Maximum Subarray</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>?</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -636,10 +644,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:L20"/>
+  <dimension ref="A1:L21"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
-      <selection activeCell="K23" sqref="K23"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A21" sqref="A21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17.25" x14ac:dyDescent="0.2"/>
@@ -1323,6 +1331,39 @@
         <v>0.25</v>
       </c>
     </row>
+    <row r="21" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A21" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="B21" s="4" t="s">
+        <v>62</v>
+      </c>
+      <c r="C21" s="1">
+        <v>53</v>
+      </c>
+      <c r="D21" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="E21" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="G21" s="3">
+        <v>0.89513888888888893</v>
+      </c>
+      <c r="H21" s="3">
+        <v>0.91666666666666663</v>
+      </c>
+      <c r="I21" s="3">
+        <f>H21-G21</f>
+        <v>2.1527777777777701E-2</v>
+      </c>
+      <c r="J21" s="5">
+        <v>0.25</v>
+      </c>
+      <c r="K21" s="5">
+        <v>0.06</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Trace.xlsx
+++ b/Trace.xlsx
@@ -1,9 +1,9 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20350"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20351"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9E5620C0-5FBD-4A7C-8078-6491E360A5F0}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{18DC5D94-F77E-477C-A130-0C5293395491}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="108" uniqueCount="64">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="111" uniqueCount="66">
   <si>
     <t>Legend</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -280,6 +280,14 @@
   </si>
   <si>
     <t>?</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Y</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Reverse Integer</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -644,10 +652,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:L21"/>
+  <dimension ref="A1:L22"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A21" sqref="A21"/>
+    <sheetView tabSelected="1" topLeftCell="E1" workbookViewId="0">
+      <selection activeCell="H17" sqref="H17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17.25" x14ac:dyDescent="0.2"/>
@@ -1364,6 +1372,36 @@
         <v>0.06</v>
       </c>
     </row>
+    <row r="22" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A22" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="B22" s="4" t="s">
+        <v>65</v>
+      </c>
+      <c r="C22" s="1">
+        <v>7</v>
+      </c>
+      <c r="D22" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="G22" s="3">
+        <v>0.97916666666666663</v>
+      </c>
+      <c r="H22" s="3">
+        <v>1</v>
+      </c>
+      <c r="I22" s="3">
+        <f>H22-G22</f>
+        <v>2.083333333333337E-2</v>
+      </c>
+      <c r="J22" s="5">
+        <v>0.8</v>
+      </c>
+      <c r="K22" s="5">
+        <v>0.06</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Trace.xlsx
+++ b/Trace.xlsx
@@ -1,11 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20351"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="11013"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{18DC5D94-F77E-477C-A130-0C5293395491}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3B28EEB5-80BD-0A4E-9E42-09718B6CC534}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="10140" yWindow="1980" windowWidth="22260" windowHeight="12640" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -15,12 +15,18 @@
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+      </xcalcf:calcFeatures>
+    </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="111" uniqueCount="66">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="118" uniqueCount="69">
   <si>
     <t>Legend</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -290,12 +296,24 @@
     <t>Reverse Integer</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
+  <si>
+    <t>Recover Binary Search Tree</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>？</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve"> Compare Version Numbers</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="5" x14ac:knownFonts="1">
+  <fonts count="5">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -652,28 +670,28 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:L22"/>
+  <dimension ref="A1:L24"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="E1" workbookViewId="0">
-      <selection activeCell="H17" sqref="H17"/>
+    <sheetView tabSelected="1" topLeftCell="A19" workbookViewId="0">
+      <selection activeCell="J26" sqref="J26"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="17.25" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="18"/>
   <cols>
     <col min="1" max="1" width="7.5" style="1" customWidth="1"/>
-    <col min="2" max="2" width="27.625" style="4" customWidth="1"/>
-    <col min="3" max="4" width="8.875" style="1"/>
-    <col min="5" max="5" width="12.625" style="1" customWidth="1"/>
+    <col min="2" max="2" width="27.6640625" style="4" customWidth="1"/>
+    <col min="3" max="4" width="8.83203125" style="1"/>
+    <col min="5" max="5" width="12.6640625" style="1" customWidth="1"/>
     <col min="6" max="6" width="11" style="1" customWidth="1"/>
-    <col min="7" max="7" width="8.875" style="1"/>
-    <col min="8" max="8" width="9.125" style="1" customWidth="1"/>
-    <col min="9" max="9" width="16.875" style="1" customWidth="1"/>
-    <col min="10" max="10" width="10.375" style="5" customWidth="1"/>
-    <col min="11" max="11" width="13.625" style="5" customWidth="1"/>
+    <col min="7" max="7" width="8.83203125" style="1"/>
+    <col min="8" max="8" width="9.1640625" style="1" customWidth="1"/>
+    <col min="9" max="9" width="16.83203125" style="1" customWidth="1"/>
+    <col min="10" max="10" width="10.33203125" style="5" customWidth="1"/>
+    <col min="11" max="11" width="13.6640625" style="5" customWidth="1"/>
     <col min="12" max="12" width="9" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" s="2" customFormat="1" ht="14.25" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:12" s="2" customFormat="1" ht="15">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -711,7 +729,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="2" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:12">
       <c r="A2" s="1" t="s">
         <v>12</v>
       </c>
@@ -741,7 +759,7 @@
         <v>6.1805555555555669E-2</v>
       </c>
     </row>
-    <row r="3" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:12">
       <c r="A3" s="1" t="s">
         <v>17</v>
       </c>
@@ -771,7 +789,7 @@
         <v>4.0277777777777746E-2</v>
       </c>
     </row>
-    <row r="4" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:12">
       <c r="A4" s="1" t="s">
         <v>18</v>
       </c>
@@ -801,7 +819,7 @@
         <v>2.2916666666666696E-2</v>
       </c>
     </row>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:12">
       <c r="A5" s="1" t="s">
         <v>27</v>
       </c>
@@ -837,7 +855,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="6" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:12">
       <c r="A6" s="1" t="s">
         <v>17</v>
       </c>
@@ -873,7 +891,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:12">
       <c r="A7" s="1" t="s">
         <v>17</v>
       </c>
@@ -909,7 +927,7 @@
         <v>8.3299999999999999E-2</v>
       </c>
     </row>
-    <row r="8" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:12">
       <c r="A8" s="1" t="s">
         <v>33</v>
       </c>
@@ -945,7 +963,7 @@
         <v>0.2</v>
       </c>
     </row>
-    <row r="9" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:12">
       <c r="A9" s="1" t="s">
         <v>27</v>
       </c>
@@ -981,7 +999,7 @@
         <v>6.6699999999999995E-2</v>
       </c>
     </row>
-    <row r="10" spans="1:12" ht="28.5" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:12" ht="34">
       <c r="A10" s="1" t="s">
         <v>12</v>
       </c>
@@ -1004,7 +1022,7 @@
         <v>0.91319444444444453</v>
       </c>
     </row>
-    <row r="11" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:12">
       <c r="A11" s="1" t="s">
         <v>41</v>
       </c>
@@ -1040,7 +1058,7 @@
         <v>5.3600000000000002E-2</v>
       </c>
     </row>
-    <row r="12" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:12">
       <c r="A12" s="1" t="s">
         <v>43</v>
       </c>
@@ -1076,7 +1094,7 @@
         <v>0.52629999999999999</v>
       </c>
     </row>
-    <row r="13" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:12">
       <c r="A13" s="1" t="s">
         <v>46</v>
       </c>
@@ -1112,7 +1130,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="14" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:12">
       <c r="A14" s="1" t="s">
         <v>48</v>
       </c>
@@ -1148,7 +1166,7 @@
         <v>0.2</v>
       </c>
     </row>
-    <row r="15" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:12">
       <c r="A15" s="1" t="s">
         <v>50</v>
       </c>
@@ -1181,7 +1199,7 @@
         <v>8.0699999999999994E-2</v>
       </c>
     </row>
-    <row r="16" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:12">
       <c r="A16" s="1" t="s">
         <v>52</v>
       </c>
@@ -1204,7 +1222,7 @@
         <v>0.93680555555555556</v>
       </c>
     </row>
-    <row r="17" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:11">
       <c r="A17" s="1" t="s">
         <v>58</v>
       </c>
@@ -1227,7 +1245,7 @@
         <v>0.72916666666666663</v>
       </c>
       <c r="I17" s="3">
-        <f>H17-G17</f>
+        <f t="shared" ref="I17:I24" si="1">H17-G17</f>
         <v>5.4861111111111027E-2</v>
       </c>
       <c r="J17" s="5">
@@ -1237,7 +1255,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="18" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:11">
       <c r="A18" s="1" t="s">
         <v>58</v>
       </c>
@@ -1260,7 +1278,7 @@
         <v>0.95138888888888884</v>
       </c>
       <c r="I18" s="3">
-        <f>H18-G18</f>
+        <f t="shared" si="1"/>
         <v>2.2916666666666585E-2</v>
       </c>
       <c r="J18" s="5">
@@ -1270,7 +1288,7 @@
         <v>0.22</v>
       </c>
     </row>
-    <row r="19" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:11">
       <c r="A19" s="1" t="s">
         <v>59</v>
       </c>
@@ -1296,7 +1314,7 @@
         <v>0.95833333333333337</v>
       </c>
       <c r="I19" s="3">
-        <f>H19-G19</f>
+        <f t="shared" si="1"/>
         <v>4.1666666666666741E-2</v>
       </c>
       <c r="J19" s="5">
@@ -1306,7 +1324,7 @@
         <v>0.2</v>
       </c>
     </row>
-    <row r="20" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:11">
       <c r="A20" s="1" t="s">
         <v>61</v>
       </c>
@@ -1329,7 +1347,7 @@
         <v>0.86805555555555547</v>
       </c>
       <c r="I20" s="3">
-        <f>H20-G20</f>
+        <f t="shared" si="1"/>
         <v>4.8611111111110938E-2</v>
       </c>
       <c r="J20" s="5">
@@ -1339,7 +1357,7 @@
         <v>0.25</v>
       </c>
     </row>
-    <row r="21" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:11">
       <c r="A21" s="1" t="s">
         <v>63</v>
       </c>
@@ -1362,7 +1380,7 @@
         <v>0.91666666666666663</v>
       </c>
       <c r="I21" s="3">
-        <f>H21-G21</f>
+        <f t="shared" si="1"/>
         <v>2.1527777777777701E-2</v>
       </c>
       <c r="J21" s="5">
@@ -1372,7 +1390,7 @@
         <v>0.06</v>
       </c>
     </row>
-    <row r="22" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:11">
       <c r="A22" s="1" t="s">
         <v>64</v>
       </c>
@@ -1392,7 +1410,7 @@
         <v>1</v>
       </c>
       <c r="I22" s="3">
-        <f>H22-G22</f>
+        <f t="shared" si="1"/>
         <v>2.083333333333337E-2</v>
       </c>
       <c r="J22" s="5">
@@ -1400,6 +1418,69 @@
       </c>
       <c r="K22" s="5">
         <v>0.06</v>
+      </c>
+    </row>
+    <row r="23" spans="1:11">
+      <c r="A23" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="B23" s="4" t="s">
+        <v>66</v>
+      </c>
+      <c r="C23" s="1">
+        <v>99</v>
+      </c>
+      <c r="D23" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="E23" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="G23" s="3">
+        <v>0.375</v>
+      </c>
+      <c r="H23" s="3">
+        <v>0.45833333333333331</v>
+      </c>
+      <c r="I23" s="3">
+        <f t="shared" si="1"/>
+        <v>8.3333333333333315E-2</v>
+      </c>
+      <c r="J23" s="5">
+        <v>0.44</v>
+      </c>
+      <c r="K23" s="5">
+        <v>0.25</v>
+      </c>
+    </row>
+    <row r="24" spans="1:11">
+      <c r="A24" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="B24" s="4" t="s">
+        <v>68</v>
+      </c>
+      <c r="C24" s="1">
+        <v>165</v>
+      </c>
+      <c r="D24" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="G24" s="3">
+        <v>0.95833333333333337</v>
+      </c>
+      <c r="H24" s="6">
+        <v>1.0208333333333333</v>
+      </c>
+      <c r="I24" s="3">
+        <f t="shared" si="1"/>
+        <v>6.2499999999999889E-2</v>
+      </c>
+      <c r="J24" s="5">
+        <v>0.99</v>
+      </c>
+      <c r="K24" s="5">
+        <v>1</v>
       </c>
     </row>
   </sheetData>

--- a/Trace.xlsx
+++ b/Trace.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="11013"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3B28EEB5-80BD-0A4E-9E42-09718B6CC534}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C7A374CD-D1F8-D140-8C1A-287E284E2888}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="10140" yWindow="1980" windowWidth="22260" windowHeight="12640" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="118" uniqueCount="69">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="121" uniqueCount="70">
   <si>
     <t>Legend</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -306,6 +306,10 @@
   </si>
   <si>
     <t xml:space="preserve"> Compare Version Numbers</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Random Point in Non-overlapping Rectangles</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -670,10 +674,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:L24"/>
+  <dimension ref="A1:L25"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A19" workbookViewId="0">
-      <selection activeCell="J26" sqref="J26"/>
+    <sheetView tabSelected="1" topLeftCell="A8" workbookViewId="0">
+      <selection activeCell="B24" sqref="B24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="18"/>
@@ -1245,7 +1249,7 @@
         <v>0.72916666666666663</v>
       </c>
       <c r="I17" s="3">
-        <f t="shared" ref="I17:I24" si="1">H17-G17</f>
+        <f t="shared" ref="I17:I25" si="1">H17-G17</f>
         <v>5.4861111111111027E-2</v>
       </c>
       <c r="J17" s="5">
@@ -1480,6 +1484,36 @@
         <v>0.99</v>
       </c>
       <c r="K24" s="5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="25" spans="1:11" ht="34">
+      <c r="A25" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="B25" s="4" t="s">
+        <v>69</v>
+      </c>
+      <c r="C25" s="1">
+        <v>497</v>
+      </c>
+      <c r="D25" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="G25" s="3">
+        <v>0.80486111111111114</v>
+      </c>
+      <c r="H25" s="3">
+        <v>0.86805555555555547</v>
+      </c>
+      <c r="I25" s="3">
+        <f t="shared" si="1"/>
+        <v>6.3194444444444331E-2</v>
+      </c>
+      <c r="J25" s="5">
+        <v>0.99429999999999996</v>
+      </c>
+      <c r="K25" s="5">
         <v>1</v>
       </c>
     </row>

--- a/Trace.xlsx
+++ b/Trace.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="11013"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C7A374CD-D1F8-D140-8C1A-287E284E2888}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1778282A-FEE3-DF40-A30F-890FA0F83C3F}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="10140" yWindow="1980" windowWidth="22260" windowHeight="12640" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="121" uniqueCount="70">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="126" uniqueCount="72">
   <si>
     <t>Legend</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -310,6 +310,14 @@
   </si>
   <si>
     <t>Random Point in Non-overlapping Rectangles</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve"> Image Overlap</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>TIME EXCEED</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -674,10 +682,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:L25"/>
+  <dimension ref="A1:L26"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A8" workbookViewId="0">
-      <selection activeCell="B24" sqref="B24"/>
+    <sheetView tabSelected="1" topLeftCell="A17" workbookViewId="0">
+      <selection activeCell="K29" sqref="K29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="18"/>
@@ -1249,7 +1257,7 @@
         <v>0.72916666666666663</v>
       </c>
       <c r="I17" s="3">
-        <f t="shared" ref="I17:I25" si="1">H17-G17</f>
+        <f t="shared" ref="I17:I26" si="1">H17-G17</f>
         <v>5.4861111111111027E-2</v>
       </c>
       <c r="J17" s="5">
@@ -1515,6 +1523,36 @@
       </c>
       <c r="K25" s="5">
         <v>1</v>
+      </c>
+    </row>
+    <row r="26" spans="1:11">
+      <c r="A26" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="B26" s="4" t="s">
+        <v>70</v>
+      </c>
+      <c r="C26" s="1">
+        <v>835</v>
+      </c>
+      <c r="D26" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="E26" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="G26" s="3">
+        <v>0.86111111111111116</v>
+      </c>
+      <c r="H26" s="3">
+        <v>0.95833333333333337</v>
+      </c>
+      <c r="I26" s="3">
+        <f t="shared" si="1"/>
+        <v>9.722222222222221E-2</v>
+      </c>
+      <c r="J26" s="5" t="s">
+        <v>71</v>
       </c>
     </row>
   </sheetData>

--- a/Trace.xlsx
+++ b/Trace.xlsx
@@ -1,9 +1,9 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="11013"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="11110"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1778282A-FEE3-DF40-A30F-890FA0F83C3F}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FA4F5677-6572-8F45-AE4E-986AAA3FFFA8}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="10140" yWindow="1980" windowWidth="22260" windowHeight="12640" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="126" uniqueCount="72">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="131" uniqueCount="75">
   <si>
     <t>Legend</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -318,6 +318,18 @@
   </si>
   <si>
     <t>TIME EXCEED</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Middle of the Linked List</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Linked List</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>OneNote</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -682,10 +694,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:L26"/>
+  <dimension ref="A1:L27"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A17" workbookViewId="0">
-      <selection activeCell="K29" sqref="K29"/>
+      <selection activeCell="K28" sqref="K28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="18"/>
@@ -1257,7 +1269,7 @@
         <v>0.72916666666666663</v>
       </c>
       <c r="I17" s="3">
-        <f t="shared" ref="I17:I26" si="1">H17-G17</f>
+        <f t="shared" ref="I17:I27" si="1">H17-G17</f>
         <v>5.4861111111111027E-2</v>
       </c>
       <c r="J17" s="5">
@@ -1553,6 +1565,42 @@
       </c>
       <c r="J26" s="5" t="s">
         <v>71</v>
+      </c>
+    </row>
+    <row r="27" spans="1:11">
+      <c r="A27" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="B27" s="4" t="s">
+        <v>72</v>
+      </c>
+      <c r="C27" s="1">
+        <v>876</v>
+      </c>
+      <c r="D27" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="E27" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="F27" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="G27" s="3">
+        <v>0.8125</v>
+      </c>
+      <c r="H27" s="3">
+        <v>0.81944444444444453</v>
+      </c>
+      <c r="I27" s="1">
+        <f t="shared" si="1"/>
+        <v>6.9444444444445308E-3</v>
+      </c>
+      <c r="J27" s="5">
+        <v>0.66</v>
+      </c>
+      <c r="K27" s="5">
+        <v>1</v>
       </c>
     </row>
   </sheetData>

--- a/Trace.xlsx
+++ b/Trace.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="11110"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FA4F5677-6572-8F45-AE4E-986AAA3FFFA8}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F5DDA880-BC34-3143-8EF4-28CDD6134D4E}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="10140" yWindow="1980" windowWidth="22260" windowHeight="12640" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="131" uniqueCount="75">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="134" uniqueCount="76">
   <si>
     <t>Legend</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -330,6 +330,10 @@
   </si>
   <si>
     <t>OneNote</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>DI String Match</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -694,10 +698,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:L27"/>
+  <dimension ref="A1:L28"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A17" workbookViewId="0">
-      <selection activeCell="K28" sqref="K28"/>
+      <selection activeCell="L35" sqref="L35"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="18"/>
@@ -1269,7 +1273,7 @@
         <v>0.72916666666666663</v>
       </c>
       <c r="I17" s="3">
-        <f t="shared" ref="I17:I27" si="1">H17-G17</f>
+        <f t="shared" ref="I17:I28" si="1">H17-G17</f>
         <v>5.4861111111111027E-2</v>
       </c>
       <c r="J17" s="5">
@@ -1592,7 +1596,7 @@
       <c r="H27" s="3">
         <v>0.81944444444444453</v>
       </c>
-      <c r="I27" s="1">
+      <c r="I27" s="3">
         <f t="shared" si="1"/>
         <v>6.9444444444445308E-3</v>
       </c>
@@ -1600,6 +1604,36 @@
         <v>0.66</v>
       </c>
       <c r="K27" s="5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="28" spans="1:11">
+      <c r="A28" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="B28" s="4" t="s">
+        <v>75</v>
+      </c>
+      <c r="C28" s="1">
+        <v>942</v>
+      </c>
+      <c r="D28" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="G28" s="3">
+        <v>0.91666666666666663</v>
+      </c>
+      <c r="H28" s="3">
+        <v>0.9375</v>
+      </c>
+      <c r="I28" s="3">
+        <f t="shared" si="1"/>
+        <v>2.083333333333337E-2</v>
+      </c>
+      <c r="J28" s="5">
+        <v>0.99</v>
+      </c>
+      <c r="K28" s="5">
         <v>1</v>
       </c>
     </row>

--- a/Trace.xlsx
+++ b/Trace.xlsx
@@ -3,12 +3,13 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="11110"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F5DDA880-BC34-3143-8EF4-28CDD6134D4E}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7F9CCBC9-BEDA-0F4D-9618-607435E18159}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="10140" yWindow="1980" windowWidth="22260" windowHeight="12640" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="10140" yWindow="1980" windowWidth="22260" windowHeight="12640" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="Python" sheetId="1" r:id="rId1"/>
+    <sheet name="C++" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -26,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="134" uniqueCount="76">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="150" uniqueCount="78">
   <si>
     <t>Legend</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -334,6 +335,14 @@
   </si>
   <si>
     <t>DI String Match</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve"> String Without AAA or BBB</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Goudy</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -698,10 +707,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:L28"/>
+  <dimension ref="A1:L29"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A17" workbookViewId="0">
-      <selection activeCell="L35" sqref="L35"/>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:L1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="18"/>
@@ -1273,7 +1282,7 @@
         <v>0.72916666666666663</v>
       </c>
       <c r="I17" s="3">
-        <f t="shared" ref="I17:I28" si="1">H17-G17</f>
+        <f t="shared" ref="I17:I29" si="1">H17-G17</f>
         <v>5.4861111111111027E-2</v>
       </c>
       <c r="J17" s="5">
@@ -1634,6 +1643,39 @@
         <v>0.99</v>
       </c>
       <c r="K28" s="5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="29" spans="1:11">
+      <c r="A29" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="B29" s="4" t="s">
+        <v>76</v>
+      </c>
+      <c r="C29" s="1">
+        <v>984</v>
+      </c>
+      <c r="D29" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="E29" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="G29" s="3">
+        <v>0.84722222222222221</v>
+      </c>
+      <c r="H29" s="3">
+        <v>0.87638888888888899</v>
+      </c>
+      <c r="I29" s="3">
+        <f t="shared" si="1"/>
+        <v>2.9166666666666785E-2</v>
+      </c>
+      <c r="J29" s="5">
+        <v>0.98</v>
+      </c>
+      <c r="K29" s="5">
         <v>1</v>
       </c>
     </row>
@@ -1642,4 +1684,58 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6F29D91D-730D-3643-9A08-68E05AF8E7C2}">
+  <dimension ref="A1:L1"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E8" sqref="E8"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1" spans="1:12">
+      <c r="A1" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="E1" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="F1" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="G1" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="I1" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="J1" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="K1" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="L1" s="2" t="s">
+        <v>39</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/Trace.xlsx
+++ b/Trace.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="11110"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7F9CCBC9-BEDA-0F4D-9618-607435E18159}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6BD58C2E-88AF-374F-82D8-E0CC2FB1F7EA}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="10140" yWindow="1980" windowWidth="22260" windowHeight="12640" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="10140" yWindow="1980" windowWidth="22260" windowHeight="12640" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Python" sheetId="1" r:id="rId1"/>
@@ -709,7 +709,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:L29"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="A16" workbookViewId="0">
       <selection sqref="A1:L1"/>
     </sheetView>
   </sheetViews>
@@ -1690,7 +1690,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6F29D91D-730D-3643-9A08-68E05AF8E7C2}">
   <dimension ref="A1:L1"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="E8" sqref="E8"/>
     </sheetView>
   </sheetViews>

--- a/Trace.xlsx
+++ b/Trace.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="11110"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6BD58C2E-88AF-374F-82D8-E0CC2FB1F7EA}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C7CBE0D3-9BAF-ED40-9CBE-D1C8D69867E9}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="10140" yWindow="1980" windowWidth="22260" windowHeight="12640" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="10140" yWindow="1980" windowWidth="22260" windowHeight="12640" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Python" sheetId="1" r:id="rId1"/>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="150" uniqueCount="78">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="160" uniqueCount="80">
   <si>
     <t>Legend</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -343,6 +343,14 @@
   </si>
   <si>
     <t>Goudy</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Binary Tree Right Side View</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>MEdium</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -707,10 +715,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:L29"/>
+  <dimension ref="A1:L30"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A16" workbookViewId="0">
-      <selection sqref="A1:L1"/>
+    <sheetView topLeftCell="A12" workbookViewId="0">
+      <selection activeCell="A30" sqref="A30:F30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="18"/>
@@ -1282,7 +1290,7 @@
         <v>0.72916666666666663</v>
       </c>
       <c r="I17" s="3">
-        <f t="shared" ref="I17:I29" si="1">H17-G17</f>
+        <f t="shared" ref="I17:I30" si="1">H17-G17</f>
         <v>5.4861111111111027E-2</v>
       </c>
       <c r="J17" s="5">
@@ -1676,6 +1684,42 @@
         <v>0.98</v>
       </c>
       <c r="K29" s="5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="30" spans="1:11">
+      <c r="A30" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="B30" s="4" t="s">
+        <v>78</v>
+      </c>
+      <c r="C30" s="1">
+        <v>199</v>
+      </c>
+      <c r="D30" s="1" t="s">
+        <v>79</v>
+      </c>
+      <c r="E30" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="F30" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="G30" s="3">
+        <v>0.85416666666666663</v>
+      </c>
+      <c r="H30" s="3">
+        <v>0.9375</v>
+      </c>
+      <c r="I30" s="1">
+        <f t="shared" si="1"/>
+        <v>8.333333333333337E-2</v>
+      </c>
+      <c r="J30" s="5">
+        <v>0.95</v>
+      </c>
+      <c r="K30" s="5">
         <v>1</v>
       </c>
     </row>
@@ -1688,13 +1732,22 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6F29D91D-730D-3643-9A08-68E05AF8E7C2}">
-  <dimension ref="A1:L1"/>
+  <dimension ref="A1:L2"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E8" sqref="E8"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="J6" sqref="J6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
+  <cols>
+    <col min="1" max="1" width="7.5" customWidth="1"/>
+    <col min="2" max="2" width="27.6640625" customWidth="1"/>
+    <col min="3" max="4" width="8.83203125"/>
+    <col min="5" max="5" width="12.6640625" customWidth="1"/>
+    <col min="6" max="6" width="11" customWidth="1"/>
+    <col min="9" max="9" width="18" style="3" customWidth="1"/>
+    <col min="11" max="11" width="13.6640625" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:12">
       <c r="A1" s="2" t="s">
@@ -1721,7 +1774,7 @@
       <c r="H1" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="I1" s="2" t="s">
+      <c r="I1" s="3" t="s">
         <v>8</v>
       </c>
       <c r="J1" s="2" t="s">
@@ -1733,6 +1786,43 @@
       <c r="L1" s="2" t="s">
         <v>39</v>
       </c>
+    </row>
+    <row r="2" spans="1:12" ht="17">
+      <c r="A2" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="B2" s="4" t="s">
+        <v>78</v>
+      </c>
+      <c r="C2" s="1">
+        <v>199</v>
+      </c>
+      <c r="D2" s="1" t="s">
+        <v>79</v>
+      </c>
+      <c r="E2" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="F2" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="G2" s="3">
+        <v>0.85416666666666663</v>
+      </c>
+      <c r="H2" s="6">
+        <v>1.0013888888888889</v>
+      </c>
+      <c r="I2" s="3">
+        <f>H2-G2</f>
+        <v>0.14722222222222225</v>
+      </c>
+      <c r="J2" s="1">
+        <v>72</v>
+      </c>
+      <c r="K2" s="1">
+        <v>100</v>
+      </c>
+      <c r="L2" s="1"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>

--- a/Trace.xlsx
+++ b/Trace.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="11110"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C7CBE0D3-9BAF-ED40-9CBE-D1C8D69867E9}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{673EF78E-8B53-A241-88B6-A58EC0160953}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="10140" yWindow="1980" windowWidth="22260" windowHeight="12640" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="160" uniqueCount="80">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="171" uniqueCount="83">
   <si>
     <t>Legend</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -351,6 +351,18 @@
   </si>
   <si>
     <t>MEdium</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>My Calendar 2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>MD</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>二叉树实现</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -715,10 +727,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:L30"/>
+  <dimension ref="A1:L31"/>
   <sheetViews>
     <sheetView topLeftCell="A12" workbookViewId="0">
-      <selection activeCell="A30" sqref="A30:F30"/>
+      <selection activeCell="A31" sqref="A31:K31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="18"/>
@@ -1290,7 +1302,7 @@
         <v>0.72916666666666663</v>
       </c>
       <c r="I17" s="3">
-        <f t="shared" ref="I17:I30" si="1">H17-G17</f>
+        <f t="shared" ref="I17:I31" si="1">H17-G17</f>
         <v>5.4861111111111027E-2</v>
       </c>
       <c r="J17" s="5">
@@ -1720,6 +1732,42 @@
         <v>0.95</v>
       </c>
       <c r="K30" s="5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="31" spans="1:11">
+      <c r="A31" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="B31" s="4" t="s">
+        <v>80</v>
+      </c>
+      <c r="C31" s="1">
+        <v>731</v>
+      </c>
+      <c r="D31" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="E31" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="F31" s="1" t="s">
+        <v>81</v>
+      </c>
+      <c r="G31" s="3">
+        <v>0.79166666666666663</v>
+      </c>
+      <c r="H31" s="3">
+        <v>0.9375</v>
+      </c>
+      <c r="I31" s="1">
+        <f t="shared" si="1"/>
+        <v>0.14583333333333337</v>
+      </c>
+      <c r="J31" s="5">
+        <v>0.62</v>
+      </c>
+      <c r="K31" s="5">
         <v>1</v>
       </c>
     </row>
@@ -1732,10 +1780,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6F29D91D-730D-3643-9A08-68E05AF8E7C2}">
-  <dimension ref="A1:L2"/>
+  <dimension ref="A1:L3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J6" sqref="J6"/>
+      <selection activeCell="L10" sqref="L10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
@@ -1824,6 +1872,45 @@
       </c>
       <c r="L2" s="1"/>
     </row>
+    <row r="3" spans="1:12" ht="18">
+      <c r="A3" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="B3" s="4" t="s">
+        <v>80</v>
+      </c>
+      <c r="C3" s="1">
+        <v>731</v>
+      </c>
+      <c r="D3" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="E3" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="F3" s="1" t="s">
+        <v>81</v>
+      </c>
+      <c r="G3" s="3">
+        <v>0.79166666666666663</v>
+      </c>
+      <c r="H3" s="3">
+        <v>0.9375</v>
+      </c>
+      <c r="I3" s="1">
+        <f t="shared" ref="I3" si="0">H3-G3</f>
+        <v>0.14583333333333337</v>
+      </c>
+      <c r="J3" s="5">
+        <v>0.73</v>
+      </c>
+      <c r="K3" s="5">
+        <v>1</v>
+      </c>
+      <c r="L3" t="s">
+        <v>82</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Trace.xlsx
+++ b/Trace.xlsx
@@ -1,11 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="11110"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="11208"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{673EF78E-8B53-A241-88B6-A58EC0160953}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{051D81A8-8096-2F44-8345-52B0D84CBD56}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="10140" yWindow="1980" windowWidth="22260" windowHeight="12640" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="10140" yWindow="1980" windowWidth="22260" windowHeight="12640" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Python" sheetId="1" r:id="rId1"/>
@@ -19,7 +19,9 @@
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
         <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
         <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
       </xcalcf:calcFeatures>
     </ext>
   </extLst>
@@ -27,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="171" uniqueCount="83">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="178" uniqueCount="85">
   <si>
     <t>Legend</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -363,6 +365,14 @@
   </si>
   <si>
     <t>二叉树实现</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">	Longest Mountain in Array    </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Decrease Elements To Make Array Zigzag</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -727,10 +737,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:L31"/>
+  <dimension ref="A1:L33"/>
   <sheetViews>
-    <sheetView topLeftCell="A12" workbookViewId="0">
-      <selection activeCell="A31" sqref="A31:K31"/>
+    <sheetView tabSelected="1" topLeftCell="A26" workbookViewId="0">
+      <selection activeCell="F38" sqref="F38"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="18"/>
@@ -1771,6 +1781,37 @@
         <v>1</v>
       </c>
     </row>
+    <row r="32" spans="1:11">
+      <c r="A32" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="B32" s="4" t="s">
+        <v>83</v>
+      </c>
+      <c r="C32" s="1">
+        <v>845</v>
+      </c>
+      <c r="D32" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="E32" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="F32" s="1" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="33" spans="1:3" ht="34">
+      <c r="A33" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="B33" s="4" t="s">
+        <v>84</v>
+      </c>
+      <c r="C33" s="1">
+        <v>1144</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -1782,7 +1823,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6F29D91D-730D-3643-9A08-68E05AF8E7C2}">
   <dimension ref="A1:L3"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="L10" sqref="L10"/>
     </sheetView>
   </sheetViews>

--- a/Trace.xlsx
+++ b/Trace.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="11208"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{051D81A8-8096-2F44-8345-52B0D84CBD56}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{87126A16-888A-5944-89A2-500918E2EB44}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="10140" yWindow="1980" windowWidth="22260" windowHeight="12640" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="178" uniqueCount="85">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="188" uniqueCount="88">
   <si>
     <t>Legend</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -373,6 +373,18 @@
   </si>
   <si>
     <t>Decrease Elements To Make Array Zigzag</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Different Ways to Add Parentheses</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve"> Prime Arrangements</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Valid Parentheses</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -737,10 +749,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:L33"/>
+  <dimension ref="A1:L36"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A26" workbookViewId="0">
-      <selection activeCell="F38" sqref="F38"/>
+      <selection activeCell="G36" sqref="G36"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="18"/>
@@ -1801,7 +1813,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="33" spans="1:3" ht="34">
+    <row r="33" spans="1:4" ht="34">
       <c r="A33" s="1" t="s">
         <v>17</v>
       </c>
@@ -1810,6 +1822,51 @@
       </c>
       <c r="C33" s="1">
         <v>1144</v>
+      </c>
+      <c r="D33" s="1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="34" spans="1:4">
+      <c r="A34" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="B34" s="4" t="s">
+        <v>85</v>
+      </c>
+      <c r="C34" s="1">
+        <v>241</v>
+      </c>
+      <c r="D34" s="1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="35" spans="1:4">
+      <c r="A35" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="B35" s="4" t="s">
+        <v>86</v>
+      </c>
+      <c r="C35" s="1">
+        <v>1175</v>
+      </c>
+      <c r="D35" s="1" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="36" spans="1:4">
+      <c r="A36" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="B36" s="4" t="s">
+        <v>87</v>
+      </c>
+      <c r="C36" s="1">
+        <v>20</v>
+      </c>
+      <c r="D36" s="1" t="s">
+        <v>22</v>
       </c>
     </row>
   </sheetData>

--- a/Trace.xlsx
+++ b/Trace.xlsx
@@ -1,11 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="11208"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="10113"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{87126A16-888A-5944-89A2-500918E2EB44}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D10D1691-D477-2E4F-A285-95A6737051AC}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="10140" yWindow="1980" windowWidth="22260" windowHeight="12640" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="10120" yWindow="1960" windowWidth="22260" windowHeight="12640" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Python" sheetId="1" r:id="rId1"/>
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="188" uniqueCount="88">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="191" uniqueCount="89">
   <si>
     <t>Legend</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -385,6 +385,10 @@
   </si>
   <si>
     <t>Valid Parentheses</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Longest Predecessor</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -749,10 +753,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:L36"/>
+  <dimension ref="A1:L37"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A26" workbookViewId="0">
-      <selection activeCell="G36" sqref="G36"/>
+      <selection activeCell="D39" sqref="D39"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="18"/>
@@ -1867,6 +1871,20 @@
       </c>
       <c r="D36" s="1" t="s">
         <v>22</v>
+      </c>
+    </row>
+    <row r="37" spans="1:4">
+      <c r="A37" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="B37" s="4" t="s">
+        <v>88</v>
+      </c>
+      <c r="C37" s="1">
+        <v>1048</v>
+      </c>
+      <c r="D37" s="1" t="s">
+        <v>9</v>
       </c>
     </row>
   </sheetData>

--- a/Trace.xlsx
+++ b/Trace.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="10113"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D10D1691-D477-2E4F-A285-95A6737051AC}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{981A742F-064F-3842-B9B3-F18D88DF0EAC}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="10120" yWindow="1960" windowWidth="22260" windowHeight="12640" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="191" uniqueCount="89">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="195" uniqueCount="91">
   <si>
     <t>Legend</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -389,6 +389,14 @@
   </si>
   <si>
     <t>Longest Predecessor</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Find First and Last Position of Element in Sorted Array</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve"> Sort Array By Parity II</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -753,10 +761,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:L37"/>
+  <dimension ref="A1:L39"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A26" workbookViewId="0">
-      <selection activeCell="D39" sqref="D39"/>
+    <sheetView tabSelected="1" topLeftCell="A34" workbookViewId="0">
+      <selection activeCell="D45" sqref="D45"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="18"/>
@@ -1885,6 +1893,28 @@
       </c>
       <c r="D37" s="1" t="s">
         <v>9</v>
+      </c>
+    </row>
+    <row r="38" spans="1:4" ht="34">
+      <c r="A38" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="B38" s="4" t="s">
+        <v>89</v>
+      </c>
+      <c r="C38" s="1">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="39" spans="1:4">
+      <c r="A39" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="B39" s="4" t="s">
+        <v>90</v>
+      </c>
+      <c r="C39" s="1">
+        <v>922</v>
       </c>
     </row>
   </sheetData>

--- a/Trace.xlsx
+++ b/Trace.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="10113"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{981A742F-064F-3842-B9B3-F18D88DF0EAC}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5E014550-2DC1-CB49-80CD-F30D1866BCED}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="10120" yWindow="1960" windowWidth="22260" windowHeight="12640" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="195" uniqueCount="91">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="201" uniqueCount="94">
   <si>
     <t>Legend</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -397,6 +397,18 @@
   </si>
   <si>
     <t xml:space="preserve"> Sort Array By Parity II</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>01 Matrix</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">Pairs of Songs With Total Durations Divisible by 60  </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Two Sum</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -761,10 +773,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:L39"/>
+  <dimension ref="A1:L42"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A34" workbookViewId="0">
-      <selection activeCell="D45" sqref="D45"/>
+      <selection activeCell="C41" sqref="C40:C41"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="18"/>
@@ -1915,6 +1927,39 @@
       </c>
       <c r="C39" s="1">
         <v>922</v>
+      </c>
+    </row>
+    <row r="40" spans="1:4" ht="34">
+      <c r="A40" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="B40" s="4" t="s">
+        <v>92</v>
+      </c>
+      <c r="C40" s="1">
+        <v>1010</v>
+      </c>
+    </row>
+    <row r="41" spans="1:4">
+      <c r="A41" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="B41" s="4" t="s">
+        <v>91</v>
+      </c>
+      <c r="C41" s="1">
+        <v>542</v>
+      </c>
+    </row>
+    <row r="42" spans="1:4">
+      <c r="A42" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="B42" s="4" t="s">
+        <v>93</v>
+      </c>
+      <c r="C42" s="1">
+        <v>1</v>
       </c>
     </row>
   </sheetData>

--- a/Trace.xlsx
+++ b/Trace.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="10113"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5E014550-2DC1-CB49-80CD-F30D1866BCED}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E8E95D50-3A4D-014D-BCC0-BDA50DC41F03}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="10120" yWindow="1960" windowWidth="22260" windowHeight="12640" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="201" uniqueCount="94">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="206" uniqueCount="98">
   <si>
     <t>Legend</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -409,6 +409,22 @@
   </si>
   <si>
     <t>Two Sum</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Last Stone Weight II</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Data</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>30/01/2020</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Friend Circle</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -473,7 +489,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -491,6 +507,9 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="46" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -773,25 +792,26 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:L42"/>
+  <dimension ref="A1:L44"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A34" workbookViewId="0">
-      <selection activeCell="C41" sqref="C40:C41"/>
+    <sheetView tabSelected="1" topLeftCell="A35" workbookViewId="0">
+      <selection activeCell="O39" sqref="O39"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="18"/>
   <cols>
     <col min="1" max="1" width="7.5" style="1" customWidth="1"/>
     <col min="2" max="2" width="27.6640625" style="4" customWidth="1"/>
-    <col min="3" max="4" width="8.83203125" style="1"/>
-    <col min="5" max="5" width="12.6640625" style="1" customWidth="1"/>
-    <col min="6" max="6" width="11" style="1" customWidth="1"/>
-    <col min="7" max="7" width="8.83203125" style="1"/>
-    <col min="8" max="8" width="9.1640625" style="1" customWidth="1"/>
-    <col min="9" max="9" width="16.83203125" style="1" customWidth="1"/>
-    <col min="10" max="10" width="10.33203125" style="5" customWidth="1"/>
-    <col min="11" max="11" width="13.6640625" style="5" customWidth="1"/>
-    <col min="12" max="12" width="9" customWidth="1"/>
+    <col min="3" max="3" width="8.83203125" style="1"/>
+    <col min="4" max="4" width="0" style="1" hidden="1" customWidth="1"/>
+    <col min="5" max="5" width="12.6640625" style="1" hidden="1" customWidth="1"/>
+    <col min="6" max="6" width="11" style="1" hidden="1" customWidth="1"/>
+    <col min="7" max="7" width="0" style="1" hidden="1" customWidth="1"/>
+    <col min="8" max="8" width="9.1640625" style="1" hidden="1" customWidth="1"/>
+    <col min="9" max="9" width="16.83203125" style="1" hidden="1" customWidth="1"/>
+    <col min="10" max="10" width="10.33203125" style="5" hidden="1" customWidth="1"/>
+    <col min="11" max="11" width="13.6640625" style="5" hidden="1" customWidth="1"/>
+    <col min="12" max="12" width="14.6640625" style="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:12" s="2" customFormat="1" ht="15">
@@ -829,7 +849,7 @@
         <v>25</v>
       </c>
       <c r="L1" s="2" t="s">
-        <v>39</v>
+        <v>95</v>
       </c>
     </row>
     <row r="2" spans="1:12">
@@ -1837,7 +1857,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="33" spans="1:4" ht="34">
+    <row r="33" spans="1:12" ht="34">
       <c r="A33" s="1" t="s">
         <v>17</v>
       </c>
@@ -1851,7 +1871,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="34" spans="1:4">
+    <row r="34" spans="1:12">
       <c r="A34" s="1" t="s">
         <v>67</v>
       </c>
@@ -1865,7 +1885,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="35" spans="1:4">
+    <row r="35" spans="1:12">
       <c r="A35" s="1" t="s">
         <v>17</v>
       </c>
@@ -1879,7 +1899,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="36" spans="1:4">
+    <row r="36" spans="1:12">
       <c r="A36" s="1" t="s">
         <v>17</v>
       </c>
@@ -1893,7 +1913,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="37" spans="1:4">
+    <row r="37" spans="1:12">
       <c r="A37" s="1" t="s">
         <v>67</v>
       </c>
@@ -1907,7 +1927,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="38" spans="1:4" ht="34">
+    <row r="38" spans="1:12" ht="34">
       <c r="A38" s="1" t="s">
         <v>12</v>
       </c>
@@ -1918,7 +1938,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="39" spans="1:4">
+    <row r="39" spans="1:12">
       <c r="A39" s="1" t="s">
         <v>17</v>
       </c>
@@ -1929,7 +1949,7 @@
         <v>922</v>
       </c>
     </row>
-    <row r="40" spans="1:4" ht="34">
+    <row r="40" spans="1:12" ht="34">
       <c r="A40" s="1" t="s">
         <v>17</v>
       </c>
@@ -1940,7 +1960,7 @@
         <v>1010</v>
       </c>
     </row>
-    <row r="41" spans="1:4">
+    <row r="41" spans="1:12">
       <c r="A41" s="1" t="s">
         <v>17</v>
       </c>
@@ -1951,7 +1971,7 @@
         <v>542</v>
       </c>
     </row>
-    <row r="42" spans="1:4">
+    <row r="42" spans="1:12">
       <c r="A42" s="1" t="s">
         <v>17</v>
       </c>
@@ -1962,7 +1982,36 @@
         <v>1</v>
       </c>
     </row>
+    <row r="43" spans="1:12">
+      <c r="A43" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="B43" s="4" t="s">
+        <v>94</v>
+      </c>
+      <c r="C43" s="1">
+        <v>1049</v>
+      </c>
+      <c r="L43" s="7" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="44" spans="1:12">
+      <c r="A44" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="B44" s="4" t="s">
+        <v>97</v>
+      </c>
+      <c r="C44" s="1">
+        <v>547</v>
+      </c>
+      <c r="L44" s="7"/>
+    </row>
   </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="L43:L44"/>
+  </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId1"/>

--- a/Trace.xlsx
+++ b/Trace.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="10113"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E8E95D50-3A4D-014D-BCC0-BDA50DC41F03}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{821DF610-0E1B-D049-AF55-E824BFE5CFE7}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="10120" yWindow="1960" windowWidth="22260" windowHeight="12640" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="206" uniqueCount="98">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="209" uniqueCount="100">
   <si>
     <t>Legend</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -425,6 +425,14 @@
   </si>
   <si>
     <t>Friend Circle</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Robot Bounded In Circle</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>01/02/2020</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -792,10 +800,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:L44"/>
+  <dimension ref="A1:L45"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A35" workbookViewId="0">
-      <selection activeCell="O39" sqref="O39"/>
+      <selection activeCell="N43" sqref="N43"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="18"/>
@@ -2007,6 +2015,20 @@
         <v>547</v>
       </c>
       <c r="L44" s="7"/>
+    </row>
+    <row r="45" spans="1:12">
+      <c r="A45" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="B45" s="4" t="s">
+        <v>98</v>
+      </c>
+      <c r="C45" s="1">
+        <v>1041</v>
+      </c>
+      <c r="L45" s="1" t="s">
+        <v>99</v>
+      </c>
     </row>
   </sheetData>
   <mergeCells count="1">

--- a/Trace.xlsx
+++ b/Trace.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="10113"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{821DF610-0E1B-D049-AF55-E824BFE5CFE7}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8775D982-09FA-CB45-BB73-9F796E5BC19D}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="10120" yWindow="1960" windowWidth="22260" windowHeight="12640" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="209" uniqueCount="100">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="214" uniqueCount="102">
   <si>
     <t>Legend</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -433,6 +433,14 @@
   </si>
   <si>
     <t>01/02/2020</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>SingSingle Number III</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>03/02/2020</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -497,7 +505,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -515,6 +523,9 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="46" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -800,10 +811,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:L45"/>
+  <dimension ref="A1:L47"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A35" workbookViewId="0">
-      <selection activeCell="N43" sqref="N43"/>
+      <selection activeCell="B48" sqref="B48"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="18"/>
@@ -2000,7 +2011,7 @@
       <c r="C43" s="1">
         <v>1049</v>
       </c>
-      <c r="L43" s="7" t="s">
+      <c r="L43" s="8" t="s">
         <v>96</v>
       </c>
     </row>
@@ -2014,7 +2025,7 @@
       <c r="C44" s="1">
         <v>547</v>
       </c>
-      <c r="L44" s="7"/>
+      <c r="L44" s="8"/>
     </row>
     <row r="45" spans="1:12">
       <c r="A45" s="1" t="s">
@@ -2028,6 +2039,31 @@
       </c>
       <c r="L45" s="1" t="s">
         <v>99</v>
+      </c>
+    </row>
+    <row r="46" spans="1:12">
+      <c r="A46" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="B46" s="4" t="s">
+        <v>100</v>
+      </c>
+      <c r="C46" s="1">
+        <v>260</v>
+      </c>
+      <c r="L46" s="7" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="47" spans="1:12">
+      <c r="A47" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="C47" s="1">
+        <v>547</v>
+      </c>
+      <c r="L47" s="1" t="s">
+        <v>101</v>
       </c>
     </row>
   </sheetData>

--- a/Trace.xlsx
+++ b/Trace.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="10113"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8775D982-09FA-CB45-BB73-9F796E5BC19D}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5C39AE6D-0916-F949-B607-D89E715D94A4}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="10120" yWindow="1960" windowWidth="22260" windowHeight="12640" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="214" uniqueCount="102">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="216" uniqueCount="103">
   <si>
     <t>Legend</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -441,6 +441,10 @@
   </si>
   <si>
     <t>03/02/2020</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Sum of Mutated Array Closest to Target</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -505,7 +509,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -523,6 +527,9 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="46" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -811,10 +818,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:L47"/>
+  <dimension ref="A1:L48"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A35" workbookViewId="0">
-      <selection activeCell="B48" sqref="B48"/>
+      <selection activeCell="L48" sqref="L48"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="18"/>
@@ -2011,7 +2018,7 @@
       <c r="C43" s="1">
         <v>1049</v>
       </c>
-      <c r="L43" s="8" t="s">
+      <c r="L43" s="9" t="s">
         <v>96</v>
       </c>
     </row>
@@ -2025,7 +2032,7 @@
       <c r="C44" s="1">
         <v>547</v>
       </c>
-      <c r="L44" s="8"/>
+      <c r="L44" s="9"/>
     </row>
     <row r="45" spans="1:12">
       <c r="A45" s="1" t="s">
@@ -2063,6 +2070,17 @@
         <v>547</v>
       </c>
       <c r="L47" s="1" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="48" spans="1:12" ht="34">
+      <c r="B48" s="4" t="s">
+        <v>102</v>
+      </c>
+      <c r="C48" s="1">
+        <v>1300</v>
+      </c>
+      <c r="L48" s="8" t="s">
         <v>101</v>
       </c>
     </row>

--- a/Trace.xlsx
+++ b/Trace.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="10113"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5C39AE6D-0916-F949-B607-D89E715D94A4}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{86AF2C22-D83A-384E-B2B8-7700795D2AA8}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="10120" yWindow="1960" windowWidth="22260" windowHeight="12640" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="216" uniqueCount="103">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="223" uniqueCount="106">
   <si>
     <t>Legend</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -445,6 +445,18 @@
   </si>
   <si>
     <t>Sum of Mutated Array Closest to Target</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Best Sightseeing Pair</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>05/02/2020</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Best Time to Buy and Sell Stock</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -818,10 +830,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:L48"/>
+  <dimension ref="A1:L50"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A35" workbookViewId="0">
-      <selection activeCell="L48" sqref="L48"/>
+      <selection activeCell="M50" sqref="M50"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="18"/>
@@ -2074,6 +2086,9 @@
       </c>
     </row>
     <row r="48" spans="1:12" ht="34">
+      <c r="A48" s="1" t="s">
+        <v>17</v>
+      </c>
       <c r="B48" s="4" t="s">
         <v>102</v>
       </c>
@@ -2082,6 +2097,34 @@
       </c>
       <c r="L48" s="8" t="s">
         <v>101</v>
+      </c>
+    </row>
+    <row r="49" spans="1:12">
+      <c r="A49" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="B49" s="4" t="s">
+        <v>103</v>
+      </c>
+      <c r="C49" s="1">
+        <v>1014</v>
+      </c>
+      <c r="L49" s="8" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="50" spans="1:12">
+      <c r="A50" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="B50" s="4" t="s">
+        <v>105</v>
+      </c>
+      <c r="C50" s="1">
+        <v>121</v>
+      </c>
+      <c r="L50" s="8" t="s">
+        <v>104</v>
       </c>
     </row>
   </sheetData>

--- a/Trace.xlsx
+++ b/Trace.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="10113"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{86AF2C22-D83A-384E-B2B8-7700795D2AA8}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E7DB08F2-E4E2-DF4E-BC05-232A1294B562}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="10120" yWindow="1960" windowWidth="22260" windowHeight="12640" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="223" uniqueCount="106">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="224" uniqueCount="107">
   <si>
     <t>Legend</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -457,6 +457,10 @@
   </si>
   <si>
     <t>Best Time to Buy and Sell Stock</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>07/05/2020</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -830,10 +834,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:L50"/>
+  <dimension ref="A1:L51"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A35" workbookViewId="0">
-      <selection activeCell="M50" sqref="M50"/>
+      <selection activeCell="M48" sqref="M48"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="18"/>
@@ -2125,6 +2129,14 @@
       </c>
       <c r="L50" s="8" t="s">
         <v>104</v>
+      </c>
+    </row>
+    <row r="51" spans="1:12">
+      <c r="C51" s="1">
+        <v>691</v>
+      </c>
+      <c r="L51" s="1" t="s">
+        <v>106</v>
       </c>
     </row>
   </sheetData>

--- a/Trace.xlsx
+++ b/Trace.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="10113"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E7DB08F2-E4E2-DF4E-BC05-232A1294B562}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8BA06295-7414-0941-ABAC-EFB1147B66FB}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="10120" yWindow="1960" windowWidth="22260" windowHeight="12640" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="224" uniqueCount="107">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="227" uniqueCount="109">
   <si>
     <t>Legend</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -461,6 +461,14 @@
   </si>
   <si>
     <t>07/05/2020</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Count Number of Nice Subarrays</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>09/02/2020</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -834,10 +842,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:L51"/>
+  <dimension ref="A1:L52"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A35" workbookViewId="0">
-      <selection activeCell="M48" sqref="M48"/>
+    <sheetView tabSelected="1" topLeftCell="A40" workbookViewId="0">
+      <selection activeCell="O48" sqref="O48"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="18"/>
@@ -2137,6 +2145,20 @@
       </c>
       <c r="L51" s="1" t="s">
         <v>106</v>
+      </c>
+    </row>
+    <row r="52" spans="1:12">
+      <c r="A52" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="B52" s="4" t="s">
+        <v>107</v>
+      </c>
+      <c r="C52" s="1">
+        <v>1248</v>
+      </c>
+      <c r="L52" s="1" t="s">
+        <v>108</v>
       </c>
     </row>
   </sheetData>

--- a/Trace.xlsx
+++ b/Trace.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="10113"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8BA06295-7414-0941-ABAC-EFB1147B66FB}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BB91D3C2-FA5B-1B4D-B34D-2BBF5D18AF10}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="10120" yWindow="1960" windowWidth="22260" windowHeight="12640" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="227" uniqueCount="109">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="230" uniqueCount="110">
   <si>
     <t>Legend</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -469,6 +469,10 @@
   </si>
   <si>
     <t>09/02/2020</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Longest Substring Without Repeating Characters</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -533,7 +537,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -551,6 +555,9 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="46" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -842,10 +849,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:L52"/>
+  <dimension ref="A1:L53"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A40" workbookViewId="0">
-      <selection activeCell="O48" sqref="O48"/>
+      <selection activeCell="L54" sqref="L54"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="18"/>
@@ -2042,7 +2049,7 @@
       <c r="C43" s="1">
         <v>1049</v>
       </c>
-      <c r="L43" s="9" t="s">
+      <c r="L43" s="10" t="s">
         <v>96</v>
       </c>
     </row>
@@ -2056,7 +2063,7 @@
       <c r="C44" s="1">
         <v>547</v>
       </c>
-      <c r="L44" s="9"/>
+      <c r="L44" s="10"/>
     </row>
     <row r="45" spans="1:12">
       <c r="A45" s="1" t="s">
@@ -2158,6 +2165,20 @@
         <v>1248</v>
       </c>
       <c r="L52" s="1" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="53" spans="1:12" ht="34">
+      <c r="A53" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="B53" s="4" t="s">
+        <v>109</v>
+      </c>
+      <c r="C53" s="1">
+        <v>3</v>
+      </c>
+      <c r="L53" s="9" t="s">
         <v>108</v>
       </c>
     </row>

--- a/Trace.xlsx
+++ b/Trace.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="10113"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BB91D3C2-FA5B-1B4D-B34D-2BBF5D18AF10}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E516D621-8D58-CC4D-85AE-50DB609CADA7}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="10120" yWindow="1960" windowWidth="22260" windowHeight="12640" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="230" uniqueCount="110">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="233" uniqueCount="112">
   <si>
     <t>Legend</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -473,6 +473,14 @@
   </si>
   <si>
     <t>Longest Substring Without Repeating Characters</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Delete Operation for Two Strings</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>11/02/2020</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -849,10 +857,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:L53"/>
+  <dimension ref="A1:L54"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A40" workbookViewId="0">
-      <selection activeCell="L54" sqref="L54"/>
+      <selection activeCell="C55" sqref="C55"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="18"/>
@@ -2180,6 +2188,20 @@
       </c>
       <c r="L53" s="9" t="s">
         <v>108</v>
+      </c>
+    </row>
+    <row r="54" spans="1:12">
+      <c r="A54" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="B54" s="4" t="s">
+        <v>110</v>
+      </c>
+      <c r="C54" s="1">
+        <v>583</v>
+      </c>
+      <c r="L54" s="1" t="s">
+        <v>111</v>
       </c>
     </row>
   </sheetData>

--- a/Trace.xlsx
+++ b/Trace.xlsx
@@ -1,9 +1,9 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="10113"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="10209"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E516D621-8D58-CC4D-85AE-50DB609CADA7}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EFF82742-9DDB-C54B-857D-2D8F8DCF0E47}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="10120" yWindow="1960" windowWidth="22260" windowHeight="12640" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="233" uniqueCount="112">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="236" uniqueCount="114">
   <si>
     <t>Legend</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -481,6 +481,14 @@
   </si>
   <si>
     <t>11/02/2020</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Wiggle Sort 2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>20/02/2020</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -857,10 +865,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:L54"/>
+  <dimension ref="A1:L55"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A40" workbookViewId="0">
-      <selection activeCell="C55" sqref="C55"/>
+      <selection activeCell="L55" sqref="L55"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="18"/>
@@ -2202,6 +2210,20 @@
       </c>
       <c r="L54" s="1" t="s">
         <v>111</v>
+      </c>
+    </row>
+    <row r="55" spans="1:12">
+      <c r="A55" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="B55" s="4" t="s">
+        <v>112</v>
+      </c>
+      <c r="C55" s="1">
+        <v>342</v>
+      </c>
+      <c r="L55" s="1" t="s">
+        <v>113</v>
       </c>
     </row>
   </sheetData>

--- a/Trace.xlsx
+++ b/Trace.xlsx
@@ -3,13 +3,13 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="10209"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EFF82742-9DDB-C54B-857D-2D8F8DCF0E47}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{61BC46B0-6B39-944C-9C15-895A1A0D8852}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="10120" yWindow="1960" windowWidth="22260" windowHeight="12640" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="14460" yWindow="5180" windowWidth="22260" windowHeight="12640" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Python" sheetId="1" r:id="rId1"/>
-    <sheet name="C++" sheetId="2" r:id="rId2"/>
+    <sheet name="Graphe" sheetId="3" r:id="rId2"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="236" uniqueCount="114">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="213" uniqueCount="112">
   <si>
     <t>Legend</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -192,10 +192,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>复习时间</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>DS</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -361,10 +357,6 @@
   </si>
   <si>
     <t>MD</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>二叉树实现</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -553,7 +545,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="11">
+  <cellXfs count="12">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -585,6 +577,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -867,7 +860,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:L55"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A40" workbookViewId="0">
+    <sheetView topLeftCell="A40" workbookViewId="0">
       <selection activeCell="L55" sqref="L55"/>
     </sheetView>
   </sheetViews>
@@ -922,7 +915,7 @@
         <v>25</v>
       </c>
       <c r="L1" s="2" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
     </row>
     <row r="2" spans="1:12">
@@ -1220,7 +1213,7 @@
     </row>
     <row r="11" spans="1:12">
       <c r="A11" s="1" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="B11" s="4" t="s">
         <v>38</v>
@@ -1232,7 +1225,7 @@
         <v>22</v>
       </c>
       <c r="E11" s="1" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="F11" s="1" t="s">
         <v>13</v>
@@ -1256,10 +1249,10 @@
     </row>
     <row r="12" spans="1:12">
       <c r="A12" s="1" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="B12" s="4" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="C12" s="1">
         <v>787</v>
@@ -1268,7 +1261,7 @@
         <v>9</v>
       </c>
       <c r="E12" s="1" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="F12" s="1" t="s">
         <v>13</v>
@@ -1292,10 +1285,10 @@
     </row>
     <row r="13" spans="1:12">
       <c r="A13" s="1" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="B13" s="4" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="C13" s="1">
         <v>1054</v>
@@ -1328,10 +1321,10 @@
     </row>
     <row r="14" spans="1:12">
       <c r="A14" s="1" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="B14" s="4" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="C14" s="1">
         <v>717</v>
@@ -1340,7 +1333,7 @@
         <v>22</v>
       </c>
       <c r="E14" s="1" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="F14" s="1" t="s">
         <v>13</v>
@@ -1364,10 +1357,10 @@
     </row>
     <row r="15" spans="1:12">
       <c r="A15" s="1" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="B15" s="4" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="C15" s="1">
         <v>461</v>
@@ -1397,10 +1390,10 @@
     </row>
     <row r="16" spans="1:12">
       <c r="A16" s="1" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="B16" s="4" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="C16" s="1">
         <v>514</v>
@@ -1409,7 +1402,7 @@
         <v>15</v>
       </c>
       <c r="E16" s="1" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="F16" s="1" t="s">
         <v>13</v>
@@ -1420,10 +1413,10 @@
     </row>
     <row r="17" spans="1:11">
       <c r="A17" s="1" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="B17" s="4" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="C17" s="1">
         <v>593</v>
@@ -1453,13 +1446,13 @@
     </row>
     <row r="18" spans="1:11">
       <c r="A18" s="1" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="C18" s="1">
         <v>925</v>
       </c>
       <c r="D18" s="1" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="E18" s="1" t="s">
         <v>29</v>
@@ -1486,10 +1479,10 @@
     </row>
     <row r="19" spans="1:11">
       <c r="A19" s="1" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="B19" s="4" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="C19" s="1">
         <v>893</v>
@@ -1522,10 +1515,10 @@
     </row>
     <row r="20" spans="1:11">
       <c r="A20" s="1" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="B20" s="4" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="C20" s="1">
         <v>640</v>
@@ -1555,10 +1548,10 @@
     </row>
     <row r="21" spans="1:11">
       <c r="A21" s="1" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="B21" s="4" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="C21" s="1">
         <v>53</v>
@@ -1588,10 +1581,10 @@
     </row>
     <row r="22" spans="1:11">
       <c r="A22" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="B22" s="4" t="s">
         <v>64</v>
-      </c>
-      <c r="B22" s="4" t="s">
-        <v>65</v>
       </c>
       <c r="C22" s="1">
         <v>7</v>
@@ -1618,10 +1611,10 @@
     </row>
     <row r="23" spans="1:11">
       <c r="A23" s="1" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="B23" s="4" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="C23" s="1">
         <v>99</v>
@@ -1654,7 +1647,7 @@
         <v>17</v>
       </c>
       <c r="B24" s="4" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="C24" s="1">
         <v>165</v>
@@ -1684,7 +1677,7 @@
         <v>17</v>
       </c>
       <c r="B25" s="4" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="C25" s="1">
         <v>497</v>
@@ -1714,7 +1707,7 @@
         <v>27</v>
       </c>
       <c r="B26" s="4" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="C26" s="1">
         <v>835</v>
@@ -1723,7 +1716,7 @@
         <v>9</v>
       </c>
       <c r="E26" s="1" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="G26" s="3">
         <v>0.86111111111111116</v>
@@ -1736,7 +1729,7 @@
         <v>9.722222222222221E-2</v>
       </c>
       <c r="J26" s="5" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
     </row>
     <row r="27" spans="1:11">
@@ -1744,7 +1737,7 @@
         <v>17</v>
       </c>
       <c r="B27" s="4" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="C27" s="1">
         <v>876</v>
@@ -1753,10 +1746,10 @@
         <v>22</v>
       </c>
       <c r="E27" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="F27" s="1" t="s">
         <v>73</v>
-      </c>
-      <c r="F27" s="1" t="s">
-        <v>74</v>
       </c>
       <c r="G27" s="3">
         <v>0.8125</v>
@@ -1777,10 +1770,10 @@
     </row>
     <row r="28" spans="1:11">
       <c r="A28" s="1" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="B28" s="4" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="C28" s="1">
         <v>942</v>
@@ -1810,7 +1803,7 @@
         <v>17</v>
       </c>
       <c r="B29" s="4" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="C29" s="1">
         <v>984</v>
@@ -1819,7 +1812,7 @@
         <v>9</v>
       </c>
       <c r="E29" s="1" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="G29" s="3">
         <v>0.84722222222222221</v>
@@ -1843,13 +1836,13 @@
         <v>17</v>
       </c>
       <c r="B30" s="4" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="C30" s="1">
         <v>199</v>
       </c>
       <c r="D30" s="1" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="E30" s="1" t="s">
         <v>10</v>
@@ -1876,10 +1869,10 @@
     </row>
     <row r="31" spans="1:11">
       <c r="A31" s="1" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="B31" s="4" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="C31" s="1">
         <v>731</v>
@@ -1891,7 +1884,7 @@
         <v>10</v>
       </c>
       <c r="F31" s="1" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="G31" s="3">
         <v>0.79166666666666663</v>
@@ -1912,10 +1905,10 @@
     </row>
     <row r="32" spans="1:11">
       <c r="A32" s="1" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="B32" s="4" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="C32" s="1">
         <v>845</v>
@@ -1927,7 +1920,7 @@
         <v>29</v>
       </c>
       <c r="F32" s="1" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
     </row>
     <row r="33" spans="1:12" ht="34">
@@ -1935,7 +1928,7 @@
         <v>17</v>
       </c>
       <c r="B33" s="4" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="C33" s="1">
         <v>1144</v>
@@ -1946,10 +1939,10 @@
     </row>
     <row r="34" spans="1:12">
       <c r="A34" s="1" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="B34" s="4" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="C34" s="1">
         <v>241</v>
@@ -1963,7 +1956,7 @@
         <v>17</v>
       </c>
       <c r="B35" s="4" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="C35" s="1">
         <v>1175</v>
@@ -1977,7 +1970,7 @@
         <v>17</v>
       </c>
       <c r="B36" s="4" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="C36" s="1">
         <v>20</v>
@@ -1988,10 +1981,10 @@
     </row>
     <row r="37" spans="1:12">
       <c r="A37" s="1" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="B37" s="4" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="C37" s="1">
         <v>1048</v>
@@ -2005,7 +1998,7 @@
         <v>12</v>
       </c>
       <c r="B38" s="4" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="C38" s="1">
         <v>32</v>
@@ -2016,7 +2009,7 @@
         <v>17</v>
       </c>
       <c r="B39" s="4" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="C39" s="1">
         <v>922</v>
@@ -2027,7 +2020,7 @@
         <v>17</v>
       </c>
       <c r="B40" s="4" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="C40" s="1">
         <v>1010</v>
@@ -2038,7 +2031,7 @@
         <v>17</v>
       </c>
       <c r="B41" s="4" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="C41" s="1">
         <v>542</v>
@@ -2049,7 +2042,7 @@
         <v>17</v>
       </c>
       <c r="B42" s="4" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="C42" s="1">
         <v>1</v>
@@ -2057,16 +2050,16 @@
     </row>
     <row r="43" spans="1:12">
       <c r="A43" s="1" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="B43" s="4" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="C43" s="1">
         <v>1049</v>
       </c>
       <c r="L43" s="10" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
     </row>
     <row r="44" spans="1:12">
@@ -2074,7 +2067,7 @@
         <v>17</v>
       </c>
       <c r="B44" s="4" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="C44" s="1">
         <v>547</v>
@@ -2086,13 +2079,13 @@
         <v>17</v>
       </c>
       <c r="B45" s="4" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="C45" s="1">
         <v>1041</v>
       </c>
       <c r="L45" s="1" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
     </row>
     <row r="46" spans="1:12">
@@ -2100,13 +2093,13 @@
         <v>17</v>
       </c>
       <c r="B46" s="4" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="C46" s="1">
         <v>260</v>
       </c>
       <c r="L46" s="7" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
     </row>
     <row r="47" spans="1:12">
@@ -2117,7 +2110,7 @@
         <v>547</v>
       </c>
       <c r="L47" s="1" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
     </row>
     <row r="48" spans="1:12" ht="34">
@@ -2125,13 +2118,13 @@
         <v>17</v>
       </c>
       <c r="B48" s="4" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="C48" s="1">
         <v>1300</v>
       </c>
       <c r="L48" s="8" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
     </row>
     <row r="49" spans="1:12">
@@ -2139,13 +2132,13 @@
         <v>27</v>
       </c>
       <c r="B49" s="4" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="C49" s="1">
         <v>1014</v>
       </c>
       <c r="L49" s="8" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
     </row>
     <row r="50" spans="1:12">
@@ -2153,13 +2146,13 @@
         <v>12</v>
       </c>
       <c r="B50" s="4" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="C50" s="1">
         <v>121</v>
       </c>
       <c r="L50" s="8" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
     </row>
     <row r="51" spans="1:12">
@@ -2167,7 +2160,7 @@
         <v>691</v>
       </c>
       <c r="L51" s="1" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
     </row>
     <row r="52" spans="1:12">
@@ -2175,13 +2168,13 @@
         <v>12</v>
       </c>
       <c r="B52" s="4" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="C52" s="1">
         <v>1248</v>
       </c>
       <c r="L52" s="1" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
     </row>
     <row r="53" spans="1:12" ht="34">
@@ -2189,13 +2182,13 @@
         <v>17</v>
       </c>
       <c r="B53" s="4" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="C53" s="1">
         <v>3</v>
       </c>
       <c r="L53" s="9" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
     </row>
     <row r="54" spans="1:12">
@@ -2203,13 +2196,13 @@
         <v>27</v>
       </c>
       <c r="B54" s="4" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="C54" s="1">
         <v>583</v>
       </c>
       <c r="L54" s="1" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
     </row>
     <row r="55" spans="1:12">
@@ -2217,13 +2210,13 @@
         <v>12</v>
       </c>
       <c r="B55" s="4" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="C55" s="1">
         <v>342</v>
       </c>
       <c r="L55" s="1" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
     </row>
   </sheetData>
@@ -2237,136 +2230,21 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6F29D91D-730D-3643-9A08-68E05AF8E7C2}">
-  <dimension ref="A1:L3"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{087F1763-3AFD-8241-8606-A1C779EA1901}">
+  <dimension ref="A1:B1"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="L10" sqref="L10"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C3" sqref="C3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
-  <cols>
-    <col min="1" max="1" width="7.5" customWidth="1"/>
-    <col min="2" max="2" width="27.6640625" customWidth="1"/>
-    <col min="3" max="4" width="8.83203125"/>
-    <col min="5" max="5" width="12.6640625" customWidth="1"/>
-    <col min="6" max="6" width="11" customWidth="1"/>
-    <col min="9" max="9" width="18" style="3" customWidth="1"/>
-    <col min="11" max="11" width="13.6640625" customWidth="1"/>
-  </cols>
   <sheetData>
-    <row r="1" spans="1:12">
-      <c r="A1" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="D1" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="E1" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="F1" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="G1" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="H1" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="I1" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="J1" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="K1" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="L1" s="2" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="2" spans="1:12" ht="17">
-      <c r="A2" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="B2" s="4" t="s">
-        <v>78</v>
-      </c>
-      <c r="C2" s="1">
-        <v>199</v>
-      </c>
-      <c r="D2" s="1" t="s">
-        <v>79</v>
-      </c>
-      <c r="E2" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="F2" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="G2" s="3">
-        <v>0.85416666666666663</v>
-      </c>
-      <c r="H2" s="6">
-        <v>1.0013888888888889</v>
-      </c>
-      <c r="I2" s="3">
-        <f>H2-G2</f>
-        <v>0.14722222222222225</v>
-      </c>
-      <c r="J2" s="1">
-        <v>72</v>
-      </c>
-      <c r="K2" s="1">
-        <v>100</v>
-      </c>
-      <c r="L2" s="1"/>
-    </row>
-    <row r="3" spans="1:12" ht="18">
-      <c r="A3" s="1" t="s">
-        <v>67</v>
-      </c>
-      <c r="B3" s="4" t="s">
-        <v>80</v>
-      </c>
-      <c r="C3" s="1">
-        <v>731</v>
-      </c>
-      <c r="D3" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="E3" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="F3" s="1" t="s">
-        <v>81</v>
-      </c>
-      <c r="G3" s="3">
-        <v>0.79166666666666663</v>
-      </c>
-      <c r="H3" s="3">
-        <v>0.9375</v>
-      </c>
-      <c r="I3" s="1">
-        <f t="shared" ref="I3" si="0">H3-G3</f>
-        <v>0.14583333333333337</v>
-      </c>
-      <c r="J3" s="5">
-        <v>0.73</v>
-      </c>
-      <c r="K3" s="5">
-        <v>1</v>
-      </c>
-      <c r="L3" t="s">
-        <v>82</v>
+    <row r="1" spans="1:2">
+      <c r="A1" s="11">
+        <v>43882</v>
+      </c>
+      <c r="B1">
+        <v>91</v>
       </c>
     </row>
   </sheetData>

--- a/Trace.xlsx
+++ b/Trace.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="10209"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{61BC46B0-6B39-944C-9C15-895A1A0D8852}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{108B03D8-9112-3644-9DEE-479B4618A0CE}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="14460" yWindow="5180" windowWidth="22260" windowHeight="12640" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="33600" windowHeight="20540" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Python" sheetId="1" r:id="rId1"/>
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="213" uniqueCount="112">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="220" uniqueCount="116">
   <si>
     <t>Legend</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -481,6 +481,22 @@
   </si>
   <si>
     <t>20/02/2020</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Number of Squareful Arrays</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>24/02/2020</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Permutation II</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>子问题</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -545,7 +561,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="12">
+  <cellXfs count="13">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -578,6 +594,9 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -593,6 +612,875 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="zh-CN"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="zh-CN"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:lineChart>
+        <c:grouping val="standard"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>Graphe!$A$1:$A$2</c:f>
+              <c:numCache>
+                <c:formatCode>m/d/yy</c:formatCode>
+                <c:ptCount val="2"/>
+                <c:pt idx="0">
+                  <c:v>43882</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>43885</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Graphe!$B$1:$B$2</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="2"/>
+                <c:pt idx="0">
+                  <c:v>91</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>93</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-247D-1643-8F52-0DFD501F4CA6}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:smooth val="0"/>
+        <c:axId val="2109115311"/>
+        <c:axId val="2109116943"/>
+      </c:lineChart>
+      <c:dateAx>
+        <c:axId val="2109115311"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="m/d/yy" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="zh-CN"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="2109116943"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblOffset val="100"/>
+        <c:baseTimeUnit val="days"/>
+      </c:dateAx>
+      <c:valAx>
+        <c:axId val="2109116943"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="zh-CN"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="2109115311"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="zh-CN"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/colors1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="227">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>450850</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>12700</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>69850</xdr:colOff>
+      <xdr:row>15</xdr:row>
+      <xdr:rowOff>88900</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="2" name="图表 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{4D9AD966-E168-3F46-B810-43466A8F31BE}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -858,10 +1746,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:L55"/>
+  <dimension ref="A1:M57"/>
   <sheetViews>
     <sheetView topLeftCell="A40" workbookViewId="0">
-      <selection activeCell="L55" sqref="L55"/>
+      <selection activeCell="N53" sqref="N53"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="18"/>
@@ -2058,7 +2946,7 @@
       <c r="C43" s="1">
         <v>1049</v>
       </c>
-      <c r="L43" s="10" t="s">
+      <c r="L43" s="12" t="s">
         <v>94</v>
       </c>
     </row>
@@ -2072,7 +2960,7 @@
       <c r="C44" s="1">
         <v>547</v>
       </c>
-      <c r="L44" s="10"/>
+      <c r="L44" s="12"/>
     </row>
     <row r="45" spans="1:12">
       <c r="A45" s="1" t="s">
@@ -2127,7 +3015,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="49" spans="1:12">
+    <row r="49" spans="1:13">
       <c r="A49" s="1" t="s">
         <v>27</v>
       </c>
@@ -2141,7 +3029,7 @@
         <v>102</v>
       </c>
     </row>
-    <row r="50" spans="1:12">
+    <row r="50" spans="1:13">
       <c r="A50" s="1" t="s">
         <v>12</v>
       </c>
@@ -2155,7 +3043,7 @@
         <v>102</v>
       </c>
     </row>
-    <row r="51" spans="1:12">
+    <row r="51" spans="1:13">
       <c r="C51" s="1">
         <v>691</v>
       </c>
@@ -2163,7 +3051,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="52" spans="1:12">
+    <row r="52" spans="1:13">
       <c r="A52" s="1" t="s">
         <v>12</v>
       </c>
@@ -2177,7 +3065,7 @@
         <v>106</v>
       </c>
     </row>
-    <row r="53" spans="1:12" ht="34">
+    <row r="53" spans="1:13" ht="34">
       <c r="A53" s="1" t="s">
         <v>17</v>
       </c>
@@ -2191,7 +3079,7 @@
         <v>106</v>
       </c>
     </row>
-    <row r="54" spans="1:12">
+    <row r="54" spans="1:13">
       <c r="A54" s="1" t="s">
         <v>27</v>
       </c>
@@ -2205,7 +3093,7 @@
         <v>109</v>
       </c>
     </row>
-    <row r="55" spans="1:12">
+    <row r="55" spans="1:13">
       <c r="A55" s="1" t="s">
         <v>12</v>
       </c>
@@ -2219,9 +3107,42 @@
         <v>111</v>
       </c>
     </row>
+    <row r="56" spans="1:13">
+      <c r="A56" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="B56" s="4" t="s">
+        <v>112</v>
+      </c>
+      <c r="C56" s="1">
+        <v>996</v>
+      </c>
+      <c r="L56" s="10" t="s">
+        <v>113</v>
+      </c>
+      <c r="M56" s="12" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="57" spans="1:13">
+      <c r="A57" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="B57" s="4" t="s">
+        <v>114</v>
+      </c>
+      <c r="C57" s="1">
+        <v>47</v>
+      </c>
+      <c r="L57" s="10" t="s">
+        <v>113</v>
+      </c>
+      <c r="M57" s="12"/>
+    </row>
   </sheetData>
-  <mergeCells count="1">
+  <mergeCells count="2">
     <mergeCell ref="L43:L44"/>
+    <mergeCell ref="M56:M57"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -2231,10 +3152,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{087F1763-3AFD-8241-8606-A1C779EA1901}">
-  <dimension ref="A1:B1"/>
+  <dimension ref="A1:B2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C3" sqref="C3"/>
+      <selection activeCell="L23" sqref="L23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
@@ -2247,8 +3168,17 @@
         <v>91</v>
       </c>
     </row>
+    <row r="2" spans="1:2">
+      <c r="A2" s="11">
+        <v>43885</v>
+      </c>
+      <c r="B2">
+        <v>93</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
 </worksheet>
 </file>
--- a/Trace.xlsx
+++ b/Trace.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="10209"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{108B03D8-9112-3644-9DEE-479B4618A0CE}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6EBE2089-F994-DF4E-A681-FF844766529E}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="33600" windowHeight="20540" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="33600" windowHeight="18940" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Python" sheetId="1" r:id="rId1"/>
@@ -681,30 +681,36 @@
           </c:marker>
           <c:cat>
             <c:numRef>
-              <c:f>Graphe!$A$1:$A$2</c:f>
+              <c:f>Graphe!$A$1:$A$19</c:f>
               <c:numCache>
                 <c:formatCode>m/d/yy</c:formatCode>
-                <c:ptCount val="2"/>
+                <c:ptCount val="19"/>
                 <c:pt idx="0">
                   <c:v>43882</c:v>
                 </c:pt>
                 <c:pt idx="1">
                   <c:v>43885</c:v>
                 </c:pt>
+                <c:pt idx="2">
+                  <c:v>43887</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Graphe!$B$1:$B$2</c:f>
+              <c:f>Graphe!$B$1:$B$19</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="2"/>
+                <c:ptCount val="19"/>
                 <c:pt idx="0">
                   <c:v>91</c:v>
                 </c:pt>
                 <c:pt idx="1">
                   <c:v>93</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>96</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3152,10 +3158,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{087F1763-3AFD-8241-8606-A1C779EA1901}">
-  <dimension ref="A1:B2"/>
+  <dimension ref="A1:B3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="L23" sqref="L23"/>
+      <selection activeCell="D22" sqref="D22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
@@ -3176,6 +3182,14 @@
         <v>93</v>
       </c>
     </row>
+    <row r="3" spans="1:2">
+      <c r="A3" s="11">
+        <v>43887</v>
+      </c>
+      <c r="B3">
+        <v>96</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Trace.xlsx
+++ b/Trace.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="10209"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6EBE2089-F994-DF4E-A681-FF844766529E}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{649134D5-1390-F64D-9B02-E78C61A6A0D3}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="460" windowWidth="33600" windowHeight="18940" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -694,6 +694,9 @@
                 <c:pt idx="2">
                   <c:v>43887</c:v>
                 </c:pt>
+                <c:pt idx="3">
+                  <c:v>43894</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:cat>
@@ -711,6 +714,9 @@
                 </c:pt>
                 <c:pt idx="2">
                   <c:v>96</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>100</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3158,10 +3164,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{087F1763-3AFD-8241-8606-A1C779EA1901}">
-  <dimension ref="A1:B3"/>
+  <dimension ref="A1:B4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D22" sqref="D22"/>
+      <selection activeCell="B10" sqref="B10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
@@ -3190,6 +3196,14 @@
         <v>96</v>
       </c>
     </row>
+    <row r="4" spans="1:2">
+      <c r="A4" s="11">
+        <v>43894</v>
+      </c>
+      <c r="B4">
+        <v>100</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
